--- a/Excel/PlayerModel.xlsx
+++ b/Excel/PlayerModel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -32,6 +32,9 @@
     <t>SkillList</t>
   </si>
   <si>
+    <t>Desc</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -114,6 +117,39 @@
   </si>
   <si>
     <t>DefIncrea6</t>
+  </si>
+  <si>
+    <t>kulou</t>
+  </si>
+  <si>
+    <t>jibenkulou</t>
+  </si>
+  <si>
+    <t>对敌人造成150%的伤害，并且回复伤害的20%的生命</t>
+  </si>
+  <si>
+    <t>cishakulou</t>
+  </si>
+  <si>
+    <t>对直线2格内的个敌人造成150%的攻击伤害，无视20%的防御</t>
+  </si>
+  <si>
+    <t>liehuokulou</t>
+  </si>
+  <si>
+    <t>对单个敌人造成150%的攻击伤害，附加攻击20%的灼烧效果</t>
+  </si>
+  <si>
+    <t>shenshou</t>
+  </si>
+  <si>
+    <t>leidainshenshou</t>
+  </si>
+  <si>
+    <t>baolieshenshou</t>
+  </si>
+  <si>
+    <t>liehuoshenshou</t>
   </si>
 </sst>
 </file>
@@ -746,13 +782,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1072,10 +1109,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1086,8 +1123,8 @@
     <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="22.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.75" style="2" customWidth="1"/>
-    <col min="8" max="9" width="9" style="2"/>
+    <col min="7" max="8" width="20.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="46" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.625" style="2" customWidth="1"/>
     <col min="11" max="11" width="8.125" style="2" customWidth="1"/>
     <col min="12" max="12" width="9.625" style="2" customWidth="1"/>
@@ -1136,7 +1173,9 @@
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1146,7 +1185,7 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1160,7 +1199,9 @@
       <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1170,32 +1211,34 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" ht="24" customHeight="1" spans="3:7">
+    <row r="6" ht="24" customHeight="1" spans="3:8">
       <c r="C6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1206,13 +1249,14 @@
       <c r="G6">
         <v>1001</v>
       </c>
-    </row>
-    <row r="7" ht="24" customHeight="1" spans="3:7">
+      <c r="H6"/>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="3:8">
       <c r="C7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1223,13 +1267,14 @@
       <c r="G7">
         <v>1001</v>
       </c>
-    </row>
-    <row r="8" ht="24" customHeight="1" spans="3:7">
+      <c r="H7"/>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="3:8">
       <c r="C8">
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -1240,13 +1285,14 @@
       <c r="G8">
         <v>2001</v>
       </c>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="3:7">
+      <c r="H8"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="3:8">
       <c r="C9">
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -1257,13 +1303,14 @@
       <c r="G9">
         <v>2001</v>
       </c>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="3:7">
+      <c r="H9"/>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="3:8">
       <c r="C10">
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1274,13 +1321,14 @@
       <c r="G10">
         <v>2001</v>
       </c>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="3:7">
+      <c r="H10"/>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="3:8">
       <c r="C11">
         <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1291,13 +1339,14 @@
       <c r="G11">
         <v>2001</v>
       </c>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="3:7">
+      <c r="H11"/>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="3:8">
       <c r="C12">
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1308,13 +1357,14 @@
       <c r="G12">
         <v>2001</v>
       </c>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="3:7">
+      <c r="H12"/>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="3:8">
       <c r="C13">
         <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1325,13 +1375,14 @@
       <c r="G13">
         <v>2001</v>
       </c>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="3:7">
+      <c r="H13"/>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="3:8">
       <c r="C14">
         <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1342,13 +1393,14 @@
       <c r="G14">
         <v>2001</v>
       </c>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="3:7">
+      <c r="H14"/>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="3:8">
       <c r="C15">
         <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -1359,13 +1411,14 @@
       <c r="G15">
         <v>3001</v>
       </c>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="3:7">
+      <c r="H15"/>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="3:8">
       <c r="C16">
         <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -1376,13 +1429,14 @@
       <c r="G16">
         <v>3001</v>
       </c>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:7">
+      <c r="H16"/>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="3:8">
       <c r="C17">
         <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -1393,13 +1447,14 @@
       <c r="G17">
         <v>3001</v>
       </c>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="3:7">
+      <c r="H17"/>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="3:8">
       <c r="C18">
         <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -1410,13 +1465,14 @@
       <c r="G18">
         <v>3001</v>
       </c>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="3:7">
+      <c r="H18"/>
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="3:8">
       <c r="C19">
         <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -1427,13 +1483,14 @@
       <c r="G19">
         <v>3001</v>
       </c>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="3:7">
+      <c r="H19"/>
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="3:8">
       <c r="C20">
         <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>4</v>
@@ -1444,13 +1501,14 @@
       <c r="G20">
         <v>3001</v>
       </c>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="3:7">
+      <c r="H20"/>
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="3:8">
       <c r="C21">
         <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -1461,13 +1519,14 @@
       <c r="G21">
         <v>3001</v>
       </c>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="3:7">
+      <c r="H21"/>
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="3:8">
       <c r="C22">
         <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -1478,13 +1537,14 @@
       <c r="G22">
         <v>3001</v>
       </c>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="3:7">
+      <c r="H22"/>
+    </row>
+    <row r="23" ht="24" customHeight="1" spans="3:8">
       <c r="C23">
         <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -1495,13 +1555,14 @@
       <c r="G23">
         <v>3001</v>
       </c>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="3:7">
+      <c r="H23"/>
+    </row>
+    <row r="24" ht="24" customHeight="1" spans="3:8">
       <c r="C24">
         <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E24">
         <v>5</v>
@@ -1512,13 +1573,14 @@
       <c r="G24">
         <v>3001</v>
       </c>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="3:7">
+      <c r="H24"/>
+    </row>
+    <row r="25" ht="24" customHeight="1" spans="3:8">
       <c r="C25">
         <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>5</v>
@@ -1529,13 +1591,14 @@
       <c r="G25">
         <v>3001</v>
       </c>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="3:7">
+      <c r="H25"/>
+    </row>
+    <row r="26" ht="24" customHeight="1" spans="3:8">
       <c r="C26">
         <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E26">
         <v>5</v>
@@ -1546,13 +1609,14 @@
       <c r="G26">
         <v>3001</v>
       </c>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="3:7">
+      <c r="H26"/>
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="3:8">
       <c r="C27">
         <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E27">
         <v>5</v>
@@ -1563,13 +1627,14 @@
       <c r="G27">
         <v>3001</v>
       </c>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="3:7">
+      <c r="H27"/>
+    </row>
+    <row r="28" ht="24" customHeight="1" spans="3:8">
       <c r="C28">
         <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -1580,164 +1645,253 @@
       <c r="G28">
         <v>3001</v>
       </c>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="3:7">
-      <c r="C29"/>
-      <c r="D29"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" ht="24" customHeight="1" spans="3:8">
+      <c r="C29">
+        <v>101</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="3:7">
-      <c r="C30"/>
-      <c r="D30"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" ht="24" customHeight="1" spans="3:8">
+      <c r="C30">
+        <v>102</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
       <c r="E30"/>
       <c r="F30"/>
-      <c r="G30"/>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="3:7">
-      <c r="C31"/>
-      <c r="D31"/>
+      <c r="G30">
+        <v>20102</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" ht="24" customHeight="1" spans="3:8">
+      <c r="C31">
+        <v>103</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
       <c r="E31"/>
       <c r="F31"/>
-      <c r="G31"/>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="3:7">
-      <c r="C32"/>
-      <c r="D32"/>
+      <c r="G31">
+        <v>20103</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" ht="24" customHeight="1" spans="3:8">
+      <c r="C32">
+        <v>104</v>
+      </c>
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
       <c r="E32"/>
       <c r="F32"/>
-      <c r="G32"/>
-    </row>
-    <row r="33" ht="24" customHeight="1" spans="3:7">
-      <c r="C33"/>
-      <c r="D33"/>
+      <c r="G32">
+        <v>20104</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" ht="24" customHeight="1" spans="3:8">
+      <c r="C33">
+        <v>110</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="3:7">
-      <c r="C34"/>
-      <c r="D34"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" ht="24" customHeight="1" spans="3:8">
+      <c r="C34">
+        <v>111</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
       <c r="E34"/>
       <c r="F34"/>
-      <c r="G34"/>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="3:7">
-      <c r="C35"/>
-      <c r="D35"/>
+      <c r="G34">
+        <v>20111</v>
+      </c>
+      <c r="H34"/>
+    </row>
+    <row r="35" ht="24" customHeight="1" spans="3:8">
+      <c r="C35">
+        <v>112</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
       <c r="E35"/>
       <c r="F35"/>
-      <c r="G35"/>
-    </row>
-    <row r="36" ht="24" customHeight="1" spans="3:7">
-      <c r="C36"/>
-      <c r="D36"/>
+      <c r="G35">
+        <v>20112</v>
+      </c>
+      <c r="H35"/>
+    </row>
+    <row r="36" ht="24" customHeight="1" spans="3:8">
+      <c r="C36">
+        <v>113</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
       <c r="E36"/>
       <c r="F36"/>
-      <c r="G36"/>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="3:7">
+      <c r="G36">
+        <v>20113</v>
+      </c>
+      <c r="H36"/>
+    </row>
+    <row r="37" ht="24" customHeight="1" spans="3:8">
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
-    </row>
-    <row r="38" ht="24" customHeight="1" spans="3:7">
+      <c r="H37"/>
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="3:8">
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="3:7">
+      <c r="H38"/>
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="3:8">
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39"/>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="3:7">
+      <c r="H39"/>
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="3:8">
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40"/>
-    </row>
-    <row r="41" ht="24" customHeight="1" spans="3:7">
+      <c r="H40"/>
+    </row>
+    <row r="41" ht="24" customHeight="1" spans="3:8">
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41"/>
-    </row>
-    <row r="42" ht="24" customHeight="1" spans="3:7">
+      <c r="H41"/>
+    </row>
+    <row r="42" ht="24" customHeight="1" spans="3:8">
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
-    </row>
-    <row r="43" ht="24" customHeight="1" spans="3:7">
+      <c r="H42"/>
+    </row>
+    <row r="43" ht="24" customHeight="1" spans="3:8">
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43"/>
-    </row>
-    <row r="44" ht="24" customHeight="1" spans="3:7">
+      <c r="H43"/>
+    </row>
+    <row r="44" ht="24" customHeight="1" spans="3:8">
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44"/>
       <c r="G44"/>
-    </row>
-    <row r="45" ht="24" customHeight="1" spans="3:7">
+      <c r="H44"/>
+    </row>
+    <row r="45" ht="24" customHeight="1" spans="3:8">
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45"/>
-    </row>
-    <row r="46" ht="24" customHeight="1" spans="3:7">
+      <c r="H45"/>
+    </row>
+    <row r="46" ht="24" customHeight="1" spans="3:8">
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
       <c r="G46"/>
-    </row>
-    <row r="47" ht="24" customHeight="1" spans="3:7">
+      <c r="H46"/>
+    </row>
+    <row r="47" ht="24" customHeight="1" spans="3:8">
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47"/>
       <c r="G47"/>
-    </row>
-    <row r="48" ht="24" customHeight="1" spans="3:7">
+      <c r="H47"/>
+    </row>
+    <row r="48" ht="24" customHeight="1" spans="3:8">
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48"/>
-    </row>
-    <row r="49" ht="24" customHeight="1" spans="3:7">
+      <c r="H48"/>
+    </row>
+    <row r="49" ht="24" customHeight="1" spans="3:8">
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49"/>
       <c r="G49"/>
-    </row>
-    <row r="50" ht="24" customHeight="1" spans="3:7">
+      <c r="H49"/>
+    </row>
+    <row r="50" ht="24" customHeight="1" spans="3:8">
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
       <c r="F50"/>
       <c r="G50"/>
+      <c r="H50"/>
+    </row>
+    <row r="51" ht="24" customHeight="1" spans="3:8">
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+    </row>
+    <row r="52" ht="24" customHeight="1" spans="3:8">
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3:G3 E4 F4 G4 E5 F5 G5 C3:C5 D4:D5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3:G3 H3 E4 F4 G4 H4 E5 F5 G5 H5 C3:C5 D4:D5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -1751,7 +1905,7 @@
   <sheetPr/>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1829,7 +1983,7 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1853,19 +2007,19 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>

--- a/Excel/PlayerModel.xlsx
+++ b/Excel/PlayerModel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -50,112 +50,58 @@
     <t>long[]</t>
   </si>
   <si>
-    <t>HpIncrea</t>
-  </si>
-  <si>
-    <t>AttIncrea</t>
-  </si>
-  <si>
-    <t>MagicIncrea</t>
-  </si>
-  <si>
-    <t>MagicIncrea1</t>
-  </si>
-  <si>
-    <t>MagicIncrea2</t>
-  </si>
-  <si>
-    <t>MagicIncrea3</t>
-  </si>
-  <si>
-    <t>MagicIncrea4</t>
-  </si>
-  <si>
-    <t>MagicIncrea5</t>
-  </si>
-  <si>
-    <t>MagicIncrea6</t>
-  </si>
-  <si>
-    <t>SpiritIncrea</t>
-  </si>
-  <si>
-    <t>SpiritIncrea1</t>
-  </si>
-  <si>
-    <t>SpiritIncrea2</t>
-  </si>
-  <si>
-    <t>SpiritIncrea3</t>
-  </si>
-  <si>
-    <t>SpiritIncrea4</t>
-  </si>
-  <si>
-    <t>SpiritIncrea5</t>
-  </si>
-  <si>
-    <t>SpiritIncrea6</t>
-  </si>
-  <si>
-    <t>DefIncrea</t>
-  </si>
-  <si>
-    <t>DefIncrea1</t>
-  </si>
-  <si>
-    <t>DefIncrea2</t>
-  </si>
-  <si>
-    <t>DefIncrea3</t>
-  </si>
-  <si>
-    <t>DefIncrea4</t>
-  </si>
-  <si>
-    <t>DefIncrea5</t>
-  </si>
-  <si>
-    <t>DefIncrea6</t>
-  </si>
-  <si>
-    <t>kulou</t>
-  </si>
-  <si>
-    <t>jibenkulou</t>
-  </si>
-  <si>
-    <t>对敌人造成150%的伤害，并且回复伤害的20%的生命</t>
-  </si>
-  <si>
-    <t>cishakulou</t>
-  </si>
-  <si>
-    <t>对直线2格内的个敌人造成150%的攻击伤害，无视20%的防御</t>
-  </si>
-  <si>
-    <t>liehuokulou</t>
-  </si>
-  <si>
-    <t>对单个敌人造成150%的攻击伤害，附加攻击20%的灼烧效果</t>
-  </si>
-  <si>
-    <t>shenshou</t>
-  </si>
-  <si>
-    <t>leidainshenshou</t>
-  </si>
-  <si>
-    <t>baolieshenshou</t>
-  </si>
-  <si>
-    <t>liehuoshenshou</t>
+    <t>刺杀</t>
+  </si>
+  <si>
+    <t>野蛮</t>
+  </si>
+  <si>
+    <t>烈火</t>
+  </si>
+  <si>
+    <t>火球</t>
+  </si>
+  <si>
+    <t>雷电</t>
+  </si>
+  <si>
+    <t>火墙</t>
+  </si>
+  <si>
+    <t>爆裂</t>
+  </si>
+  <si>
+    <t>冰炮</t>
+  </si>
+  <si>
+    <t>治疗</t>
+  </si>
+  <si>
+    <t>火符</t>
+  </si>
+  <si>
+    <t>剧毒</t>
+  </si>
+  <si>
+    <t>召唤</t>
+  </si>
+  <si>
+    <t>火神</t>
+  </si>
+  <si>
+    <t>12001,12003</t>
+  </si>
+  <si>
+    <t>战五渣</t>
+  </si>
+  <si>
+    <t>啥都不会</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -184,34 +130,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -225,14 +143,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,6 +182,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,7 +247,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,49 +289,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,121 +427,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,21 +480,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -581,6 +512,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,208 +583,210 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1109,10 +1057,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1233,532 +1181,340 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" ht="24" customHeight="1" spans="3:8">
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>1001</v>
-      </c>
-      <c r="H6"/>
+    <row r="6" s="1" customFormat="1" spans="1:12">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" ht="24" customHeight="1" spans="3:8">
       <c r="C7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
       <c r="G7">
-        <v>1001</v>
+        <v>11002</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8" ht="24" customHeight="1" spans="3:8">
       <c r="C8">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
       <c r="G8">
-        <v>2001</v>
+        <v>11004</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9" ht="24" customHeight="1" spans="3:8">
       <c r="C9">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
       <c r="G9">
-        <v>2001</v>
+        <v>11007</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10" ht="24" customHeight="1" spans="3:8">
       <c r="C10">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
       <c r="G10">
-        <v>2001</v>
+        <v>12001</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11" ht="24" customHeight="1" spans="3:8">
       <c r="C11">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
       <c r="G11">
-        <v>2001</v>
+        <v>12002</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:8">
       <c r="C12">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
       <c r="G12">
-        <v>2001</v>
+        <v>12003</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13" ht="24" customHeight="1" spans="3:8">
       <c r="C13">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>7</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
       <c r="G13">
-        <v>2001</v>
+        <v>12004</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14" ht="24" customHeight="1" spans="3:8">
       <c r="C14">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>8</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14"/>
       <c r="G14">
-        <v>2001</v>
+        <v>12007</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15" ht="24" customHeight="1" spans="3:8">
       <c r="C15">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15"/>
       <c r="G15">
-        <v>3001</v>
+        <v>13001</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16" ht="24" customHeight="1" spans="3:8">
       <c r="C16">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16"/>
       <c r="G16">
-        <v>3001</v>
+        <v>13002</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17" ht="24" customHeight="1" spans="3:8">
       <c r="C17">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17"/>
       <c r="G17">
-        <v>3001</v>
+        <v>13003</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18" ht="24" customHeight="1" spans="3:8">
       <c r="C18">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18"/>
       <c r="G18">
-        <v>3001</v>
+        <v>13004</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19" ht="24" customHeight="1" spans="3:8">
       <c r="C19">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19">
-        <v>6</v>
-      </c>
-      <c r="G19">
-        <v>3001</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20" ht="24" customHeight="1" spans="3:8">
       <c r="C20">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
       </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-      <c r="F20">
-        <v>7</v>
-      </c>
-      <c r="G20">
-        <v>3001</v>
-      </c>
-      <c r="H20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" ht="24" customHeight="1" spans="3:8">
-      <c r="C21">
-        <v>46</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21">
-        <v>8</v>
-      </c>
-      <c r="G21">
-        <v>3001</v>
-      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
       <c r="H21"/>
     </row>
     <row r="22" ht="24" customHeight="1" spans="3:8">
-      <c r="C22">
-        <v>50</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <v>3001</v>
-      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
       <c r="H22"/>
     </row>
     <row r="23" ht="24" customHeight="1" spans="3:8">
-      <c r="C23">
-        <v>51</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23">
-        <v>5</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <v>3001</v>
-      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
       <c r="H23"/>
     </row>
     <row r="24" ht="24" customHeight="1" spans="3:8">
-      <c r="C24">
-        <v>52</v>
-      </c>
-      <c r="D24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24">
-        <v>5</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
-      <c r="G24">
-        <v>3001</v>
-      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
       <c r="H24"/>
     </row>
     <row r="25" ht="24" customHeight="1" spans="3:8">
-      <c r="C25">
-        <v>53</v>
-      </c>
-      <c r="D25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25">
-        <v>5</v>
-      </c>
-      <c r="F25">
-        <v>5</v>
-      </c>
-      <c r="G25">
-        <v>3001</v>
-      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
       <c r="H25"/>
     </row>
     <row r="26" ht="24" customHeight="1" spans="3:8">
-      <c r="C26">
-        <v>54</v>
-      </c>
-      <c r="D26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26">
-        <v>5</v>
-      </c>
-      <c r="F26">
-        <v>6</v>
-      </c>
-      <c r="G26">
-        <v>3001</v>
-      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
       <c r="H26"/>
     </row>
     <row r="27" ht="24" customHeight="1" spans="3:8">
-      <c r="C27">
-        <v>55</v>
-      </c>
-      <c r="D27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27">
-        <v>5</v>
-      </c>
-      <c r="F27">
-        <v>7</v>
-      </c>
-      <c r="G27">
-        <v>3001</v>
-      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
       <c r="H27"/>
     </row>
     <row r="28" ht="24" customHeight="1" spans="3:8">
-      <c r="C28">
-        <v>56</v>
-      </c>
-      <c r="D28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28">
-        <v>5</v>
-      </c>
-      <c r="F28">
-        <v>8</v>
-      </c>
-      <c r="G28">
-        <v>3001</v>
-      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
       <c r="H28"/>
     </row>
     <row r="29" ht="24" customHeight="1" spans="3:8">
-      <c r="C29">
-        <v>101</v>
-      </c>
-      <c r="D29" t="s">
-        <v>34</v>
-      </c>
+      <c r="C29"/>
+      <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
     </row>
     <row r="30" ht="24" customHeight="1" spans="3:8">
-      <c r="C30">
-        <v>102</v>
-      </c>
-      <c r="D30" t="s">
-        <v>35</v>
-      </c>
+      <c r="C30"/>
+      <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
-      <c r="G30">
-        <v>20102</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="G30"/>
+      <c r="H30"/>
     </row>
     <row r="31" ht="24" customHeight="1" spans="3:8">
-      <c r="C31">
-        <v>103</v>
-      </c>
-      <c r="D31" t="s">
-        <v>37</v>
-      </c>
+      <c r="C31"/>
+      <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
-      <c r="G31">
-        <v>20103</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="3:8">
-      <c r="C32">
-        <v>104</v>
-      </c>
-      <c r="D32" t="s">
-        <v>39</v>
-      </c>
+      <c r="G31"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" ht="24" customHeight="1" spans="3:7">
+      <c r="C32"/>
+      <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
-      <c r="G32">
-        <v>20104</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="G32"/>
     </row>
     <row r="33" ht="24" customHeight="1" spans="3:8">
-      <c r="C33">
-        <v>110</v>
-      </c>
-      <c r="D33" t="s">
-        <v>41</v>
-      </c>
+      <c r="C33"/>
+      <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
-      <c r="H33"/>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="3:8">
-      <c r="C34">
-        <v>111</v>
-      </c>
-      <c r="D34" t="s">
-        <v>42</v>
-      </c>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" ht="24" customHeight="1" spans="3:7">
+      <c r="C34"/>
+      <c r="D34"/>
       <c r="E34"/>
       <c r="F34"/>
-      <c r="G34">
-        <v>20111</v>
-      </c>
-      <c r="H34"/>
+      <c r="G34"/>
     </row>
     <row r="35" ht="24" customHeight="1" spans="3:8">
-      <c r="C35">
-        <v>112</v>
-      </c>
-      <c r="D35" t="s">
-        <v>43</v>
-      </c>
+      <c r="C35"/>
+      <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
-      <c r="G35">
-        <v>20112</v>
-      </c>
+      <c r="G35"/>
       <c r="H35"/>
     </row>
     <row r="36" ht="24" customHeight="1" spans="3:8">
-      <c r="C36">
-        <v>113</v>
-      </c>
-      <c r="D36" t="s">
-        <v>44</v>
-      </c>
+      <c r="C36"/>
+      <c r="D36"/>
       <c r="E36"/>
       <c r="F36"/>
-      <c r="G36">
-        <v>20113</v>
-      </c>
+      <c r="G36"/>
       <c r="H36"/>
     </row>
     <row r="37" ht="24" customHeight="1" spans="3:8">
@@ -1889,9 +1645,25 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
+    <row r="53" ht="24" customHeight="1" spans="3:8">
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+    </row>
+    <row r="54" ht="24" customHeight="1" spans="3:8">
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3:G3 H3 E4 F4 G4 H4 E5 F5 G5 H5 C3:C5 D4:D5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3:G3 H3 E4 F4 G4 H4 E5 F5 G5 H5 C6 D6 E6 F6 G6 H6 C3:C5 D4:D5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -1906,7 +1678,7 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A3" sqref="$A3:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/PlayerModel.xlsx
+++ b/Excel/PlayerModel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -53,7 +53,10 @@
     <t>刺杀</t>
   </si>
   <si>
-    <t>野蛮</t>
+    <t>战神</t>
+  </si>
+  <si>
+    <t>11004,11007</t>
   </si>
   <si>
     <t>烈火</t>
@@ -737,6 +740,7 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1060,7 +1064,7 @@
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1218,8 +1222,8 @@
       </c>
       <c r="E8"/>
       <c r="F8"/>
-      <c r="G8">
-        <v>11004</v>
+      <c r="G8" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="H8"/>
     </row>
@@ -1228,7 +1232,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -1242,7 +1246,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -1256,7 +1260,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -1270,7 +1274,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1284,7 +1288,7 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -1298,7 +1302,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -1312,7 +1316,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
@@ -1326,7 +1330,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
@@ -1340,7 +1344,7 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
@@ -1354,7 +1358,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
@@ -1368,12 +1372,12 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
-      <c r="G19" s="6" t="s">
-        <v>24</v>
+      <c r="G19" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="H19"/>
     </row>
@@ -1382,13 +1386,13 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" spans="3:8">

--- a/Excel/PlayerModel.xlsx
+++ b/Excel/PlayerModel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>召唤</t>
+  </si>
+  <si>
+    <t>3004,13002</t>
   </si>
   <si>
     <t>火神</t>
@@ -1064,7 +1067,7 @@
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1362,8 +1365,8 @@
       </c>
       <c r="E18"/>
       <c r="F18"/>
-      <c r="G18">
-        <v>13004</v>
+      <c r="G18" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="H18"/>
     </row>
@@ -1372,12 +1375,12 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H19"/>
     </row>
@@ -1386,13 +1389,13 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" spans="3:8">

--- a/Excel/PlayerModel.xlsx
+++ b/Excel/PlayerModel.xlsx
@@ -10,12 +10,60 @@
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
     <sheet name="定制配置" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 简单苦难
+30 噩梦Boss
+31 噩梦首领
+32 噩梦头目</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -23,6 +71,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>AttrList</t>
   </si>
   <si>
@@ -32,6 +83,12 @@
     <t>SkillList</t>
   </si>
   <si>
+    <t>Rune</t>
+  </si>
+  <si>
+    <t>Suit</t>
+  </si>
+  <si>
     <t>Desc</t>
   </si>
   <si>
@@ -102,19 +159,46 @@
   </si>
   <si>
     <t>啥都不会</t>
+  </si>
+  <si>
+    <t>皇-战甲</t>
+  </si>
+  <si>
+    <t>皇-法甲</t>
+  </si>
+  <si>
+    <t>皇-道甲</t>
+  </si>
+  <si>
+    <t>皇-法乙</t>
+  </si>
+  <si>
+    <t>皇-战乙</t>
+  </si>
+  <si>
+    <t>王-战</t>
+  </si>
+  <si>
+    <t>3001,3005</t>
+  </si>
+  <si>
+    <t>君-战</t>
+  </si>
+  <si>
+    <t>1001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +362,17 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1064,10 +1159,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1075,21 +1170,20 @@
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.75" style="2" customWidth="1"/>
-    <col min="7" max="8" width="20.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="46" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="4" max="5" width="12.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.75" style="2" customWidth="1"/>
+    <col min="8" max="11" width="20.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="46" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" spans="1:15">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1097,11 +1191,13 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:12">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1109,8 +1205,11 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:12">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1131,16 +1230,25 @@
       <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="L3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:12">
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1157,38 +1265,56 @@
       <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="I4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="L4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:12">
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="J5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="L5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:12">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -1197,485 +1323,801 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="2"/>
-    </row>
-    <row r="7" ht="24" customHeight="1" spans="3:8">
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="3:11">
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7"/>
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
       <c r="F7"/>
-      <c r="G7">
+      <c r="G7"/>
+      <c r="H7">
         <v>11002</v>
       </c>
-      <c r="H7"/>
-    </row>
-    <row r="8" ht="24" customHeight="1" spans="3:8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7"/>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="3:11">
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8"/>
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
       <c r="F8"/>
-      <c r="G8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8"/>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="3:8">
+      <c r="G8"/>
+      <c r="H8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="3:11">
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9"/>
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
       <c r="F9"/>
-      <c r="G9">
+      <c r="G9"/>
+      <c r="H9">
         <v>11007</v>
       </c>
-      <c r="H9"/>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="3:8">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9"/>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="3:11">
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10"/>
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
       <c r="F10"/>
-      <c r="G10">
+      <c r="G10"/>
+      <c r="H10">
         <v>12001</v>
       </c>
-      <c r="H10"/>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="3:8">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10"/>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="3:11">
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11"/>
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
       <c r="F11"/>
-      <c r="G11">
+      <c r="G11"/>
+      <c r="H11">
         <v>12002</v>
       </c>
-      <c r="H11"/>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="3:8">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11"/>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="3:11">
       <c r="C12">
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12"/>
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
       <c r="F12"/>
-      <c r="G12">
+      <c r="G12"/>
+      <c r="H12">
         <v>12003</v>
       </c>
-      <c r="H12"/>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="3:8">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12"/>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="3:11">
       <c r="C13">
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13"/>
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
       <c r="F13"/>
-      <c r="G13">
+      <c r="G13"/>
+      <c r="H13">
         <v>12004</v>
       </c>
-      <c r="H13"/>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="3:8">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13"/>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="3:11">
       <c r="C14">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14"/>
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
       <c r="F14"/>
-      <c r="G14">
+      <c r="G14"/>
+      <c r="H14">
         <v>12007</v>
       </c>
-      <c r="H14"/>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="3:8">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14"/>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="3:11">
       <c r="C15">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15"/>
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
       <c r="F15"/>
-      <c r="G15">
+      <c r="G15"/>
+      <c r="H15">
         <v>13001</v>
       </c>
-      <c r="H15"/>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="3:8">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15"/>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="3:11">
       <c r="C16">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16"/>
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
       <c r="F16"/>
-      <c r="G16">
+      <c r="G16"/>
+      <c r="H16">
         <v>13002</v>
       </c>
-      <c r="H16"/>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:8">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16"/>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="3:11">
       <c r="C17">
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17"/>
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
       <c r="F17"/>
-      <c r="G17">
+      <c r="G17"/>
+      <c r="H17">
         <v>13003</v>
       </c>
-      <c r="H17"/>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="3:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17"/>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="3:11">
       <c r="C18">
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18"/>
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
       <c r="F18"/>
-      <c r="G18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18"/>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="3:8">
+      <c r="G18"/>
+      <c r="H18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18"/>
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="3:11">
       <c r="C19">
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19"/>
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
       <c r="F19"/>
-      <c r="G19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19"/>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="3:8">
+      <c r="G19"/>
+      <c r="H19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19"/>
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="3:11">
       <c r="C20">
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20"/>
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
       <c r="F20"/>
       <c r="G20"/>
-      <c r="H20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="3:8">
+      <c r="H20"/>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="3:11">
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="3:8">
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="3:11">
+      <c r="C22">
+        <v>3000</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22">
+        <v>30</v>
+      </c>
       <c r="F22"/>
       <c r="G22"/>
-      <c r="H22"/>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="3:8">
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
+      <c r="H22">
+        <v>1001</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22"/>
+    </row>
+    <row r="23" ht="24" customHeight="1" spans="3:11">
+      <c r="C23">
+        <v>3001</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23">
+        <v>30</v>
+      </c>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="H23"/>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="3:8">
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
+      <c r="H23">
+        <v>2001</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23"/>
+    </row>
+    <row r="24" ht="24" customHeight="1" spans="3:11">
+      <c r="C24">
+        <v>3002</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24">
+        <v>30</v>
+      </c>
       <c r="F24"/>
       <c r="G24"/>
-      <c r="H24"/>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="3:8">
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
+      <c r="H24">
+        <v>3002</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24"/>
+    </row>
+    <row r="25" ht="24" customHeight="1" spans="3:11">
+      <c r="C25">
+        <v>3003</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25">
+        <v>30</v>
+      </c>
       <c r="F25"/>
       <c r="G25"/>
-      <c r="H25"/>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="3:8">
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
+      <c r="H25">
+        <v>2002</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25"/>
+    </row>
+    <row r="26" ht="24" customHeight="1" spans="3:11">
+      <c r="C26">
+        <v>3004</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="H26"/>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="3:8">
+      <c r="H26">
+        <v>1002</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26"/>
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="3:11">
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="3:8">
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+    </row>
+    <row r="28" ht="24" customHeight="1" spans="3:11">
+      <c r="C28">
+        <v>3100</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28">
+        <v>31</v>
+      </c>
       <c r="F28"/>
       <c r="G28"/>
-      <c r="H28"/>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="3:8">
+      <c r="H28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28"/>
+    </row>
+    <row r="29" ht="24" customHeight="1" spans="3:11">
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="3:8">
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+    </row>
+    <row r="30" ht="24" customHeight="1" spans="3:11">
+      <c r="C30">
+        <v>3200</v>
+      </c>
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30">
+        <v>32</v>
+      </c>
       <c r="F30"/>
       <c r="G30"/>
-      <c r="H30"/>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="3:8">
+      <c r="H30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30"/>
+    </row>
+    <row r="31" ht="24" customHeight="1" spans="3:11">
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="3:7">
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+    </row>
+    <row r="32" ht="24" customHeight="1" spans="3:10">
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
-    </row>
-    <row r="33" ht="24" customHeight="1" spans="3:8">
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+    </row>
+    <row r="33" ht="24" customHeight="1" spans="3:11">
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="3:7">
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" ht="24" customHeight="1" spans="3:10">
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34"/>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="3:8">
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+    </row>
+    <row r="35" ht="24" customHeight="1" spans="3:11">
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
       <c r="H35"/>
-    </row>
-    <row r="36" ht="24" customHeight="1" spans="3:8">
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+    </row>
+    <row r="36" ht="24" customHeight="1" spans="3:11">
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
       <c r="H36"/>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="3:8">
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+    </row>
+    <row r="37" ht="24" customHeight="1" spans="3:11">
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
       <c r="H37"/>
-    </row>
-    <row r="38" ht="24" customHeight="1" spans="3:8">
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="3:11">
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
       <c r="H38"/>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="3:8">
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="3:11">
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39"/>
       <c r="H39"/>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="3:8">
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="3:11">
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40"/>
       <c r="H40"/>
-    </row>
-    <row r="41" ht="24" customHeight="1" spans="3:8">
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+    </row>
+    <row r="41" ht="24" customHeight="1" spans="3:11">
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41"/>
       <c r="H41"/>
-    </row>
-    <row r="42" ht="24" customHeight="1" spans="3:8">
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+    </row>
+    <row r="42" ht="24" customHeight="1" spans="3:11">
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
       <c r="H42"/>
-    </row>
-    <row r="43" ht="24" customHeight="1" spans="3:8">
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+    </row>
+    <row r="43" ht="24" customHeight="1" spans="3:11">
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43"/>
       <c r="H43"/>
-    </row>
-    <row r="44" ht="24" customHeight="1" spans="3:8">
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+    </row>
+    <row r="44" ht="24" customHeight="1" spans="3:11">
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44"/>
       <c r="G44"/>
       <c r="H44"/>
-    </row>
-    <row r="45" ht="24" customHeight="1" spans="3:8">
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+    </row>
+    <row r="45" ht="24" customHeight="1" spans="3:11">
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45"/>
-    </row>
-    <row r="46" ht="24" customHeight="1" spans="3:8">
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+    </row>
+    <row r="46" ht="24" customHeight="1" spans="3:11">
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
       <c r="G46"/>
       <c r="H46"/>
-    </row>
-    <row r="47" ht="24" customHeight="1" spans="3:8">
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+    </row>
+    <row r="47" ht="24" customHeight="1" spans="3:11">
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47"/>
       <c r="G47"/>
       <c r="H47"/>
-    </row>
-    <row r="48" ht="24" customHeight="1" spans="3:8">
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+    </row>
+    <row r="48" ht="24" customHeight="1" spans="3:11">
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48"/>
       <c r="H48"/>
-    </row>
-    <row r="49" ht="24" customHeight="1" spans="3:8">
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+    </row>
+    <row r="49" ht="24" customHeight="1" spans="3:11">
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49"/>
       <c r="G49"/>
       <c r="H49"/>
-    </row>
-    <row r="50" ht="24" customHeight="1" spans="3:8">
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+    </row>
+    <row r="50" ht="24" customHeight="1" spans="3:11">
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
       <c r="F50"/>
       <c r="G50"/>
       <c r="H50"/>
-    </row>
-    <row r="51" ht="24" customHeight="1" spans="3:8">
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+    </row>
+    <row r="51" ht="24" customHeight="1" spans="3:11">
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51"/>
       <c r="G51"/>
       <c r="H51"/>
-    </row>
-    <row r="52" ht="24" customHeight="1" spans="3:8">
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+    </row>
+    <row r="52" ht="24" customHeight="1" spans="3:11">
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52"/>
       <c r="H52"/>
-    </row>
-    <row r="53" ht="24" customHeight="1" spans="3:8">
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+    </row>
+    <row r="53" ht="24" customHeight="1" spans="3:11">
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
       <c r="F53"/>
       <c r="G53"/>
       <c r="H53"/>
-    </row>
-    <row r="54" ht="24" customHeight="1" spans="3:8">
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+    </row>
+    <row r="54" ht="24" customHeight="1" spans="3:11">
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
       <c r="F54"/>
       <c r="G54"/>
       <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3:G3 H3 E4 F4 G4 H4 E5 F5 G5 H5 C6 D6 E6 F6 G6 H6 C3:C5 D4:D5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3:H3 I3 J3 K3 E4 F4 G4 H4 I4 J4 K4 E5 F5 G5 H5 I5 J5 K5 C6 D6 E6 F6 G6 H6 I6 J6 K6 C3:C5 D4:D5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1744,13 +2186,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1762,19 +2204,19 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1786,19 +2228,19 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>

--- a/Excel/PlayerModel.xlsx
+++ b/Excel/PlayerModel.xlsx
@@ -51,6 +51,29 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+0 简单困难难
+3 噩梦</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 1 简单苦难
 30 噩梦Boss
 31 噩梦首领
@@ -63,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -71,7 +94,10 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Type</t>
+    <t>Layer</t>
+  </si>
+  <si>
+    <t>Quality</t>
   </si>
   <si>
     <t>AttrList</t>
@@ -1159,10 +1185,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1170,21 +1196,20 @@
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.75" style="2" customWidth="1"/>
-    <col min="8" max="11" width="20.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="46" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.625" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="4" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.75" style="2" customWidth="1"/>
+    <col min="9" max="12" width="20.75" style="2" customWidth="1"/>
+    <col min="13" max="13" width="46" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.625" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
+    <row r="1" s="1" customFormat="1" spans="1:16">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1194,11 +1219,11 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:15">
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:16">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1208,8 +1233,9 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:15">
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:16">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1239,16 +1265,19 @@
       <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:15">
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:16">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1274,578 +1303,645 @@
       <c r="K4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:15">
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:16">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" ht="24" customHeight="1" spans="3:11">
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" ht="24" customHeight="1" spans="3:12">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6">
+        <v>11002</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6"/>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="3:12">
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7"/>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="3:12">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8">
+        <v>11007</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="3:12">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9">
+        <v>12001</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9"/>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="3:12">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10">
+        <v>12002</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10"/>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="3:12">
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11">
+        <v>12003</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11"/>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="3:12">
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12">
+        <v>12004</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12"/>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="3:12">
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13">
+        <v>12007</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13"/>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="3:12">
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14">
+        <v>13001</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14"/>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="3:12">
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15">
+        <v>13002</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15"/>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="3:12">
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16">
+        <v>13003</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16"/>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="3:12">
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17"/>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="3:12">
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18"/>
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="3:12">
+      <c r="C19">
         <v>14</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7">
-        <v>11002</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7"/>
-    </row>
-    <row r="8" ht="24" customHeight="1" spans="3:11">
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8"/>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="3:11">
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9">
-        <v>11007</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9"/>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="3:11">
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10">
-        <v>12001</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10"/>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="3:11">
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11">
-        <v>12002</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11"/>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="3:11">
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12">
-        <v>12003</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12"/>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="3:11">
-      <c r="C13">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13">
-        <v>12004</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13"/>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="3:11">
-      <c r="C14">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14">
-        <v>12007</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14"/>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="3:11">
-      <c r="C15">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15">
-        <v>13001</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15"/>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="3:11">
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16">
-        <v>13002</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16"/>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:11">
-      <c r="C17">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17">
-        <v>13003</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17"/>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="3:11">
-      <c r="C18">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18"/>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="3:11">
-      <c r="C19">
-        <v>13</v>
-      </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
       <c r="G19"/>
-      <c r="H19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
+      <c r="H19"/>
+      <c r="I19"/>
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19"/>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="3:11">
-      <c r="C20">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="3:12">
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="3:11">
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="3:12">
+      <c r="C21">
+        <v>3000</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
       <c r="G21"/>
       <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="3:11">
+      <c r="I21">
+        <v>1001</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21"/>
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="3:12">
       <c r="C22">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E22">
-        <v>30</v>
-      </c>
-      <c r="F22"/>
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
       <c r="G22"/>
-      <c r="H22">
-        <v>1001</v>
-      </c>
+      <c r="H22"/>
       <c r="I22">
-        <v>1</v>
+        <v>2001</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
-      <c r="K22"/>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="3:11">
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22"/>
+    </row>
+    <row r="23" ht="24" customHeight="1" spans="3:12">
       <c r="C23">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E23">
-        <v>30</v>
-      </c>
-      <c r="F23"/>
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
       <c r="G23"/>
-      <c r="H23">
-        <v>2001</v>
-      </c>
+      <c r="H23"/>
       <c r="I23">
-        <v>1</v>
+        <v>3002</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
-      <c r="K23"/>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="3:11">
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23"/>
+    </row>
+    <row r="24" ht="24" customHeight="1" spans="3:12">
       <c r="C24">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E24">
-        <v>30</v>
-      </c>
-      <c r="F24"/>
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
       <c r="G24"/>
-      <c r="H24">
-        <v>3002</v>
-      </c>
+      <c r="H24"/>
       <c r="I24">
-        <v>1</v>
+        <v>2002</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
-      <c r="K24"/>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="3:11">
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24"/>
+    </row>
+    <row r="25" ht="24" customHeight="1" spans="3:12">
       <c r="C25">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E25">
-        <v>30</v>
-      </c>
-      <c r="F25"/>
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
       <c r="G25"/>
-      <c r="H25">
-        <v>2002</v>
-      </c>
+      <c r="H25"/>
       <c r="I25">
-        <v>1</v>
+        <v>1002</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
-      <c r="K25"/>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="3:11">
-      <c r="C26">
-        <v>3004</v>
-      </c>
-      <c r="D26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26">
-        <v>30</v>
-      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25"/>
+    </row>
+    <row r="26" ht="24" customHeight="1" spans="3:12">
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="H26">
-        <v>1002</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
       <c r="K26"/>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="3:11">
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="3:12">
+      <c r="C27">
+        <v>3100</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
       <c r="G27"/>
       <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="3:11">
-      <c r="C28">
-        <v>3100</v>
-      </c>
-      <c r="D28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28">
-        <v>31</v>
-      </c>
+      <c r="I27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27"/>
+    </row>
+    <row r="28" ht="24" customHeight="1" spans="3:12">
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
-      <c r="H28" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
       <c r="K28"/>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="3:11">
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
+      <c r="L28"/>
+    </row>
+    <row r="29" ht="24" customHeight="1" spans="3:12">
+      <c r="C29">
+        <v>3200</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
       <c r="G29"/>
       <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="3:11">
-      <c r="C30">
-        <v>3200</v>
-      </c>
-      <c r="D30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30">
-        <v>32</v>
-      </c>
+      <c r="I29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29"/>
+    </row>
+    <row r="30" ht="24" customHeight="1" spans="3:12">
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
-      <c r="H30" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
       <c r="K30"/>
+      <c r="L30"/>
     </row>
     <row r="31" ht="24" customHeight="1" spans="3:11">
       <c r="C31"/>
@@ -1858,7 +1954,7 @@
       <c r="J31"/>
       <c r="K31"/>
     </row>
-    <row r="32" ht="24" customHeight="1" spans="3:10">
+    <row r="32" ht="24" customHeight="1" spans="3:12">
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -1867,6 +1963,8 @@
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32" s="5"/>
     </row>
     <row r="33" ht="24" customHeight="1" spans="3:11">
       <c r="C33"/>
@@ -1877,9 +1975,9 @@
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
-      <c r="K33" s="5"/>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="3:10">
+      <c r="K33"/>
+    </row>
+    <row r="34" ht="24" customHeight="1" spans="3:12">
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
@@ -1888,8 +1986,10 @@
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="3:11">
+      <c r="K34"/>
+      <c r="L34"/>
+    </row>
+    <row r="35" ht="24" customHeight="1" spans="3:12">
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
@@ -1899,8 +1999,9 @@
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
-    </row>
-    <row r="36" ht="24" customHeight="1" spans="3:11">
+      <c r="L35"/>
+    </row>
+    <row r="36" ht="24" customHeight="1" spans="3:12">
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
@@ -1910,8 +2011,9 @@
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="3:11">
+      <c r="L36"/>
+    </row>
+    <row r="37" ht="24" customHeight="1" spans="3:12">
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
@@ -1921,8 +2023,9 @@
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
-    </row>
-    <row r="38" ht="24" customHeight="1" spans="3:11">
+      <c r="L37"/>
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="3:12">
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
@@ -1932,8 +2035,9 @@
       <c r="I38"/>
       <c r="J38"/>
       <c r="K38"/>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="3:11">
+      <c r="L38"/>
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="3:12">
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
@@ -1943,8 +2047,9 @@
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="3:11">
+      <c r="L39"/>
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="3:12">
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
@@ -1954,8 +2059,9 @@
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
-    </row>
-    <row r="41" ht="24" customHeight="1" spans="3:11">
+      <c r="L40"/>
+    </row>
+    <row r="41" ht="24" customHeight="1" spans="3:12">
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
@@ -1965,8 +2071,9 @@
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
-    </row>
-    <row r="42" ht="24" customHeight="1" spans="3:11">
+      <c r="L41"/>
+    </row>
+    <row r="42" ht="24" customHeight="1" spans="3:12">
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
@@ -1976,8 +2083,9 @@
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
-    </row>
-    <row r="43" ht="24" customHeight="1" spans="3:11">
+      <c r="L42"/>
+    </row>
+    <row r="43" ht="24" customHeight="1" spans="3:12">
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
@@ -1987,8 +2095,9 @@
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
-    </row>
-    <row r="44" ht="24" customHeight="1" spans="3:11">
+      <c r="L43"/>
+    </row>
+    <row r="44" ht="24" customHeight="1" spans="3:12">
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
@@ -1998,8 +2107,9 @@
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
-    </row>
-    <row r="45" ht="24" customHeight="1" spans="3:11">
+      <c r="L44"/>
+    </row>
+    <row r="45" ht="24" customHeight="1" spans="3:12">
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
@@ -2009,8 +2119,9 @@
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
-    </row>
-    <row r="46" ht="24" customHeight="1" spans="3:11">
+      <c r="L45"/>
+    </row>
+    <row r="46" ht="24" customHeight="1" spans="3:12">
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
@@ -2020,8 +2131,9 @@
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
-    </row>
-    <row r="47" ht="24" customHeight="1" spans="3:11">
+      <c r="L46"/>
+    </row>
+    <row r="47" ht="24" customHeight="1" spans="3:12">
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
@@ -2031,8 +2143,9 @@
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
-    </row>
-    <row r="48" ht="24" customHeight="1" spans="3:11">
+      <c r="L47"/>
+    </row>
+    <row r="48" ht="24" customHeight="1" spans="3:12">
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
@@ -2042,8 +2155,9 @@
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48"/>
-    </row>
-    <row r="49" ht="24" customHeight="1" spans="3:11">
+      <c r="L48"/>
+    </row>
+    <row r="49" ht="24" customHeight="1" spans="3:12">
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
@@ -2053,8 +2167,9 @@
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
-    </row>
-    <row r="50" ht="24" customHeight="1" spans="3:11">
+      <c r="L49"/>
+    </row>
+    <row r="50" ht="24" customHeight="1" spans="3:12">
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
@@ -2064,8 +2179,9 @@
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
-    </row>
-    <row r="51" ht="24" customHeight="1" spans="3:11">
+      <c r="L50"/>
+    </row>
+    <row r="51" ht="24" customHeight="1" spans="3:12">
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
@@ -2075,8 +2191,9 @@
       <c r="I51"/>
       <c r="J51"/>
       <c r="K51"/>
-    </row>
-    <row r="52" ht="24" customHeight="1" spans="3:11">
+      <c r="L51"/>
+    </row>
+    <row r="52" ht="24" customHeight="1" spans="3:12">
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
@@ -2086,8 +2203,9 @@
       <c r="I52"/>
       <c r="J52"/>
       <c r="K52"/>
-    </row>
-    <row r="53" ht="24" customHeight="1" spans="3:11">
+      <c r="L52"/>
+    </row>
+    <row r="53" ht="24" customHeight="1" spans="3:12">
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
@@ -2097,21 +2215,11 @@
       <c r="I53"/>
       <c r="J53"/>
       <c r="K53"/>
-    </row>
-    <row r="54" ht="24" customHeight="1" spans="3:11">
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
+      <c r="L53"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3:H3 I3 J3 K3 E4 F4 G4 H4 I4 J4 K4 E5 F5 G5 H5 I5 J5 K5 C6 D6 E6 F6 G6 H6 I6 J6 K6 C3:C5 D4:D5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3:I3 J3 K3 L3 E4 F4 G4 H4 I4 J4 K4 L4 E5 F5 G5 H5 I5 J5 K5 L5 C3:C5 D4:D5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -2186,13 +2294,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2204,19 +2312,19 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2228,19 +2336,19 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>

--- a/Excel/PlayerModel.xlsx
+++ b/Excel/PlayerModel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1187,8 +1187,8 @@
   <sheetPr/>
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/PlayerModel.xlsx
+++ b/Excel/PlayerModel.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
-    <sheet name="定制配置" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -86,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -97,6 +96,9 @@
     <t>Layer</t>
   </si>
   <si>
+    <t>MapId</t>
+  </si>
+  <si>
     <t>Quality</t>
   </si>
   <si>
@@ -187,31 +189,52 @@
     <t>啥都不会</t>
   </si>
   <si>
-    <t>皇-战甲</t>
-  </si>
-  <si>
-    <t>皇-法甲</t>
-  </si>
-  <si>
-    <t>皇-道甲</t>
-  </si>
-  <si>
-    <t>皇-法乙</t>
-  </si>
-  <si>
-    <t>皇-战乙</t>
-  </si>
-  <si>
-    <t>王-战</t>
-  </si>
-  <si>
-    <t>3001,3005</t>
-  </si>
-  <si>
-    <t>君-战</t>
+    <t>皇·基础</t>
+  </si>
+  <si>
+    <t>皇·火球</t>
+  </si>
+  <si>
+    <t>皇·火符</t>
+  </si>
+  <si>
+    <t>皇·雷电</t>
+  </si>
+  <si>
+    <t>皇·刺杀</t>
+  </si>
+  <si>
+    <t>王·道士</t>
+  </si>
+  <si>
+    <t>3001,3003</t>
+  </si>
+  <si>
+    <t>王·法师</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>王·战士</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>君·战士</t>
   </si>
   <si>
     <t>1001</t>
+  </si>
+  <si>
+    <t>君·法师</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>君·道士</t>
   </si>
 </sst>
 </file>
@@ -1185,10 +1208,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1196,21 +1219,20 @@
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.75" style="2" customWidth="1"/>
-    <col min="9" max="12" width="20.75" style="2" customWidth="1"/>
-    <col min="13" max="13" width="46" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13.625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9.625" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="4" max="7" width="12.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.75" style="2" customWidth="1"/>
+    <col min="10" max="13" width="20.75" style="2" customWidth="1"/>
+    <col min="14" max="14" width="46" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.625" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:16">
+    <row r="1" s="1" customFormat="1" spans="1:17">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1220,11 +1242,11 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:16">
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:17">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1234,8 +1256,9 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:16">
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:17">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1268,16 +1291,19 @@
       <c r="L3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:16">
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:17">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1306,55 +1332,61 @@
       <c r="L4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:16">
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:17">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-    </row>
-    <row r="6" ht="24" customHeight="1" spans="3:12">
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" ht="24" customHeight="1" spans="3:13">
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1362,25 +1394,28 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6"/>
+      <c r="G6">
+        <v>0</v>
+      </c>
       <c r="H6"/>
-      <c r="I6">
+      <c r="I6"/>
+      <c r="J6">
         <v>11002</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6"/>
-    </row>
-    <row r="7" ht="24" customHeight="1" spans="3:12">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6"/>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="3:13">
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1388,25 +1423,28 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7"/>
+      <c r="G7">
+        <v>0</v>
+      </c>
       <c r="H7"/>
-      <c r="I7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+      <c r="I7"/>
+      <c r="J7" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7"/>
-    </row>
-    <row r="8" ht="24" customHeight="1" spans="3:12">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7"/>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="3:13">
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1414,25 +1452,28 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8"/>
+      <c r="G8">
+        <v>0</v>
+      </c>
       <c r="H8"/>
-      <c r="I8">
+      <c r="I8"/>
+      <c r="J8">
         <v>11007</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8"/>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="3:12">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="3:13">
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1440,25 +1481,28 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9"/>
+      <c r="G9">
+        <v>0</v>
+      </c>
       <c r="H9"/>
-      <c r="I9">
+      <c r="I9"/>
+      <c r="J9">
         <v>12001</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9"/>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="3:12">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9"/>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="3:13">
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1466,25 +1510,28 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10"/>
+      <c r="G10">
+        <v>0</v>
+      </c>
       <c r="H10"/>
-      <c r="I10">
+      <c r="I10"/>
+      <c r="J10">
         <v>12002</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10"/>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="3:12">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10"/>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="3:13">
       <c r="C11">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1492,25 +1539,28 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11"/>
+      <c r="G11">
+        <v>0</v>
+      </c>
       <c r="H11"/>
-      <c r="I11">
+      <c r="I11"/>
+      <c r="J11">
         <v>12003</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11"/>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="3:12">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11"/>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="3:13">
       <c r="C12">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1518,25 +1568,28 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12"/>
+      <c r="G12">
+        <v>0</v>
+      </c>
       <c r="H12"/>
-      <c r="I12">
+      <c r="I12"/>
+      <c r="J12">
         <v>12004</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="L12"/>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="3:12">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12"/>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="3:13">
       <c r="C13">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1544,25 +1597,28 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13"/>
+      <c r="G13">
+        <v>0</v>
+      </c>
       <c r="H13"/>
-      <c r="I13">
+      <c r="I13"/>
+      <c r="J13">
         <v>12007</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13"/>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="3:12">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13"/>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="3:13">
       <c r="C14">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1570,25 +1626,28 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14"/>
+      <c r="G14">
+        <v>0</v>
+      </c>
       <c r="H14"/>
-      <c r="I14">
+      <c r="I14"/>
+      <c r="J14">
         <v>13001</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="L14"/>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="3:12">
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14"/>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="3:13">
       <c r="C15">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1596,25 +1655,28 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15"/>
+      <c r="G15">
+        <v>0</v>
+      </c>
       <c r="H15"/>
-      <c r="I15">
+      <c r="I15"/>
+      <c r="J15">
         <v>13002</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15"/>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="3:12">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15"/>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="3:13">
       <c r="C16">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1622,25 +1684,28 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16"/>
+      <c r="G16">
+        <v>0</v>
+      </c>
       <c r="H16"/>
-      <c r="I16">
+      <c r="I16"/>
+      <c r="J16">
         <v>13003</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16"/>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:12">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16"/>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="3:13">
       <c r="C17">
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1648,25 +1713,28 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17"/>
+      <c r="G17">
+        <v>0</v>
+      </c>
       <c r="H17"/>
-      <c r="I17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
+      <c r="I17"/>
+      <c r="J17" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17"/>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="3:12">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17"/>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="3:13">
       <c r="C18">
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1674,25 +1742,28 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18"/>
+      <c r="G18">
+        <v>0</v>
+      </c>
       <c r="H18"/>
-      <c r="I18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
+      <c r="I18"/>
+      <c r="J18" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18"/>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="3:12">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18"/>
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="3:13">
       <c r="C19">
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1700,20 +1771,23 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19"/>
+      <c r="G19">
+        <v>0</v>
+      </c>
       <c r="H19"/>
       <c r="I19"/>
-      <c r="J19">
-        <v>0</v>
-      </c>
+      <c r="J19"/>
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="L19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="3:12">
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="3:13">
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -1724,138 +1798,154 @@
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="3:12">
+      <c r="M20"/>
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="3:13">
       <c r="C21">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21">
         <v>3</v>
       </c>
       <c r="F21">
+        <v>1070</v>
+      </c>
+      <c r="G21">
         <v>5</v>
       </c>
-      <c r="G21"/>
       <c r="H21"/>
-      <c r="I21">
+      <c r="I21"/>
+      <c r="J21">
         <v>1001</v>
       </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
       <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21"/>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="3:12">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21"/>
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="3:13">
       <c r="C22">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
       <c r="F22">
+        <v>1071</v>
+      </c>
+      <c r="G22">
         <v>5</v>
       </c>
-      <c r="G22"/>
       <c r="H22"/>
-      <c r="I22">
+      <c r="I22"/>
+      <c r="J22">
         <v>2001</v>
       </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
       <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22"/>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="3:12">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22"/>
+    </row>
+    <row r="23" ht="24" customHeight="1" spans="3:13">
       <c r="C23">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E23">
         <v>3</v>
       </c>
       <c r="F23">
+        <v>1072</v>
+      </c>
+      <c r="G23">
         <v>5</v>
       </c>
-      <c r="G23"/>
       <c r="H23"/>
-      <c r="I23">
+      <c r="I23"/>
+      <c r="J23">
         <v>3002</v>
       </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
       <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23"/>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="3:12">
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23"/>
+    </row>
+    <row r="24" ht="24" customHeight="1" spans="3:13">
       <c r="C24">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E24">
         <v>3</v>
       </c>
       <c r="F24">
+        <v>1073</v>
+      </c>
+      <c r="G24">
         <v>5</v>
       </c>
-      <c r="G24"/>
       <c r="H24"/>
-      <c r="I24">
+      <c r="I24"/>
+      <c r="J24">
         <v>2002</v>
       </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
       <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24"/>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="3:12">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24"/>
+    </row>
+    <row r="25" ht="24" customHeight="1" spans="3:13">
       <c r="C25">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E25">
         <v>3</v>
       </c>
       <c r="F25">
+        <v>1074</v>
+      </c>
+      <c r="G25">
         <v>5</v>
       </c>
-      <c r="G25"/>
       <c r="H25"/>
-      <c r="I25">
+      <c r="I25"/>
+      <c r="J25">
         <v>1002</v>
       </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
       <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25"/>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="3:12">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25"/>
+    </row>
+    <row r="26" ht="24" customHeight="1" spans="3:13">
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
@@ -1866,72 +1956,96 @@
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="3:12">
+      <c r="M26"/>
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="3:13">
       <c r="C27">
-        <v>3100</v>
+        <v>3101</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E27">
         <v>3</v>
       </c>
       <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
         <v>4</v>
       </c>
-      <c r="G27"/>
       <c r="H27"/>
-      <c r="I27" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J27">
+      <c r="I27"/>
+      <c r="J27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
         <v>1</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27"/>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="3:12">
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
+      <c r="M27"/>
+    </row>
+    <row r="28" ht="24" customHeight="1" spans="3:13">
+      <c r="C28">
+        <v>3102</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
       <c r="H28"/>
       <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="3:12">
+      <c r="J28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28"/>
+    </row>
+    <row r="29" ht="24" customHeight="1" spans="3:13">
       <c r="C29">
-        <v>3200</v>
+        <v>3103</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
       <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29">
         <v>3</v>
       </c>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J29">
+      <c r="L29">
         <v>1</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29"/>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="3:12">
+      <c r="M29"/>
+    </row>
+    <row r="30" ht="24" customHeight="1" spans="3:13">
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -1942,8 +2056,9 @@
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="3:11">
+      <c r="M30"/>
+    </row>
+    <row r="31" ht="24" customHeight="1" spans="3:13">
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -1953,43 +2068,97 @@
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="3:12">
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
+      <c r="L31"/>
+      <c r="M31"/>
+    </row>
+    <row r="32" ht="22" customHeight="1" spans="3:13">
+      <c r="C32">
+        <v>3201</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
       <c r="H32"/>
       <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32" s="5"/>
-    </row>
-    <row r="33" ht="24" customHeight="1" spans="3:11">
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
+      <c r="J32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32"/>
+    </row>
+    <row r="33" ht="22" customHeight="1" spans="3:13">
+      <c r="C33">
+        <v>3202</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
       <c r="H33"/>
       <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="3:12">
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
+      <c r="J33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33"/>
+    </row>
+    <row r="34" ht="22" customHeight="1" spans="3:13">
+      <c r="C34">
+        <v>3203</v>
+      </c>
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
       <c r="H34"/>
       <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="3:12">
+      <c r="J34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34"/>
+    </row>
+    <row r="35" ht="24" customHeight="1" spans="3:13">
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
@@ -2000,6 +2169,7 @@
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
+      <c r="M35" s="5"/>
     </row>
     <row r="36" ht="24" customHeight="1" spans="3:12">
       <c r="C36"/>
@@ -2013,7 +2183,7 @@
       <c r="K36"/>
       <c r="L36"/>
     </row>
-    <row r="37" ht="24" customHeight="1" spans="3:12">
+    <row r="37" ht="24" customHeight="1" spans="3:13">
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
@@ -2024,8 +2194,9 @@
       <c r="J37"/>
       <c r="K37"/>
       <c r="L37"/>
-    </row>
-    <row r="38" ht="24" customHeight="1" spans="3:12">
+      <c r="M37"/>
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="3:13">
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
@@ -2036,8 +2207,9 @@
       <c r="J38"/>
       <c r="K38"/>
       <c r="L38"/>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="3:12">
+      <c r="M38"/>
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="3:13">
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
@@ -2048,8 +2220,9 @@
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="3:12">
+      <c r="M39"/>
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="3:13">
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
@@ -2060,8 +2233,9 @@
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
-    </row>
-    <row r="41" ht="24" customHeight="1" spans="3:12">
+      <c r="M40"/>
+    </row>
+    <row r="41" ht="24" customHeight="1" spans="3:13">
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
@@ -2072,8 +2246,9 @@
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
-    </row>
-    <row r="42" ht="24" customHeight="1" spans="3:12">
+      <c r="M41"/>
+    </row>
+    <row r="42" ht="24" customHeight="1" spans="3:13">
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
@@ -2084,8 +2259,9 @@
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42"/>
-    </row>
-    <row r="43" ht="24" customHeight="1" spans="3:12">
+      <c r="M42"/>
+    </row>
+    <row r="43" ht="24" customHeight="1" spans="3:13">
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
@@ -2096,8 +2272,9 @@
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43"/>
-    </row>
-    <row r="44" ht="24" customHeight="1" spans="3:12">
+      <c r="M43"/>
+    </row>
+    <row r="44" ht="24" customHeight="1" spans="3:13">
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
@@ -2108,8 +2285,9 @@
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
-    </row>
-    <row r="45" ht="24" customHeight="1" spans="3:12">
+      <c r="M44"/>
+    </row>
+    <row r="45" ht="24" customHeight="1" spans="3:13">
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
@@ -2120,8 +2298,9 @@
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
-    </row>
-    <row r="46" ht="24" customHeight="1" spans="3:12">
+      <c r="M45"/>
+    </row>
+    <row r="46" ht="24" customHeight="1" spans="3:13">
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
@@ -2132,8 +2311,9 @@
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
-    </row>
-    <row r="47" ht="24" customHeight="1" spans="3:12">
+      <c r="M46"/>
+    </row>
+    <row r="47" ht="24" customHeight="1" spans="3:13">
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
@@ -2144,8 +2324,9 @@
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
-    </row>
-    <row r="48" ht="24" customHeight="1" spans="3:12">
+      <c r="M47"/>
+    </row>
+    <row r="48" ht="24" customHeight="1" spans="3:13">
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
@@ -2156,8 +2337,9 @@
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
-    </row>
-    <row r="49" ht="24" customHeight="1" spans="3:12">
+      <c r="M48"/>
+    </row>
+    <row r="49" ht="24" customHeight="1" spans="3:13">
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
@@ -2168,8 +2350,9 @@
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49"/>
-    </row>
-    <row r="50" ht="24" customHeight="1" spans="3:12">
+      <c r="M49"/>
+    </row>
+    <row r="50" ht="24" customHeight="1" spans="3:13">
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
@@ -2180,8 +2363,9 @@
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50"/>
-    </row>
-    <row r="51" ht="24" customHeight="1" spans="3:12">
+      <c r="M50"/>
+    </row>
+    <row r="51" ht="24" customHeight="1" spans="3:13">
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
@@ -2192,8 +2376,9 @@
       <c r="J51"/>
       <c r="K51"/>
       <c r="L51"/>
-    </row>
-    <row r="52" ht="24" customHeight="1" spans="3:12">
+      <c r="M51"/>
+    </row>
+    <row r="52" ht="24" customHeight="1" spans="3:13">
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
@@ -2204,8 +2389,9 @@
       <c r="J52"/>
       <c r="K52"/>
       <c r="L52"/>
-    </row>
-    <row r="53" ht="24" customHeight="1" spans="3:12">
+      <c r="M52"/>
+    </row>
+    <row r="53" ht="24" customHeight="1" spans="3:13">
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
@@ -2216,10 +2402,50 @@
       <c r="J53"/>
       <c r="K53"/>
       <c r="L53"/>
+      <c r="M53"/>
+    </row>
+    <row r="54" ht="24" customHeight="1" spans="3:13">
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+    </row>
+    <row r="55" ht="24" customHeight="1" spans="3:13">
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+    </row>
+    <row r="56" ht="24" customHeight="1" spans="3:13">
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3:I3 J3 K3 L3 E4 F4 G4 H4 I4 J4 K4 L4 E5 F5 G5 H5 I5 J5 K5 L5 C3:C5 D4:D5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3:J3 K3 L3 M3 E4 F4 G4 H4 I4 J4 K4 L4 M4 E5 F5 G5 H5 I5 J5 K5 L5 M5 C3:C5 D4:D5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -2227,440 +2453,4 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13" style="2" customWidth="1"/>
-    <col min="10" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="13.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:14">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:12">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:12">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:12">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" customFormat="1" ht="24" customHeight="1" spans="1:15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-    </row>
-    <row r="37" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-    </row>
-    <row r="38" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3:G3 E4 F4 G4 E5 F5 G5 C3:C5 D4:D5" errorStyle="warning">
-      <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Excel/PlayerModel.xlsx
+++ b/Excel/PlayerModel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1210,8 +1210,8 @@
   <sheetPr/>
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/PlayerModel.xlsx
+++ b/Excel/PlayerModel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -202,6 +202,36 @@
   </si>
   <si>
     <t>皇·刺杀</t>
+  </si>
+  <si>
+    <t>皇·战士</t>
+  </si>
+  <si>
+    <t>1001,1004</t>
+  </si>
+  <si>
+    <t>皇·法师</t>
+  </si>
+  <si>
+    <t>2001,2007</t>
+  </si>
+  <si>
+    <t>皇·道士</t>
+  </si>
+  <si>
+    <t>3002,3007</t>
+  </si>
+  <si>
+    <t>皇·战法</t>
+  </si>
+  <si>
+    <t>1002,2003</t>
+  </si>
+  <si>
+    <t>皇·道法</t>
+  </si>
+  <si>
+    <t>3007,2002</t>
   </si>
   <si>
     <t>王·道士</t>
@@ -1208,10 +1238,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1227,7 +1257,7 @@
     <col min="15" max="15" width="13.625" style="2" customWidth="1"/>
     <col min="16" max="16" width="8.125" style="2" customWidth="1"/>
     <col min="17" max="17" width="9.625" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="2"/>
+    <col min="18" max="16383" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:17">
@@ -1946,116 +1976,148 @@
       <c r="M25"/>
     </row>
     <row r="26" ht="24" customHeight="1" spans="3:13">
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
+      <c r="C26">
+        <v>3006</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1075</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
+      <c r="J26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
       <c r="M26"/>
     </row>
     <row r="27" ht="24" customHeight="1" spans="3:13">
       <c r="C27">
-        <v>3101</v>
+        <v>3007</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E27">
         <v>3</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1076</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M27"/>
     </row>
     <row r="28" ht="24" customHeight="1" spans="3:13">
       <c r="C28">
-        <v>3102</v>
+        <v>3008</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E28">
         <v>3</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1077</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M28"/>
     </row>
     <row r="29" ht="24" customHeight="1" spans="3:13">
       <c r="C29">
-        <v>3103</v>
+        <v>3009</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1078</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29"/>
+    </row>
+    <row r="30" ht="24" customHeight="1" spans="3:13">
+      <c r="C30">
+        <v>3010</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30">
         <v>3</v>
       </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29"/>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="3:13">
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
+      <c r="F30">
+        <v>1079</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
       <c r="H30"/>
       <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
+      <c r="J30" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
       <c r="M30"/>
     </row>
     <row r="31" ht="24" customHeight="1" spans="3:13">
@@ -2071,12 +2133,12 @@
       <c r="L31"/>
       <c r="M31"/>
     </row>
-    <row r="32" ht="22" customHeight="1" spans="3:13">
+    <row r="32" ht="24" customHeight="1" spans="3:13">
       <c r="C32">
-        <v>3201</v>
+        <v>3101</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -2085,27 +2147,27 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32"/>
     </row>
-    <row r="33" ht="22" customHeight="1" spans="3:13">
+    <row r="33" ht="24" customHeight="1" spans="3:13">
       <c r="C33">
-        <v>3202</v>
+        <v>3102</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -2114,27 +2176,27 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33"/>
     </row>
-    <row r="34" ht="22" customHeight="1" spans="3:13">
+    <row r="34" ht="24" customHeight="1" spans="3:13">
       <c r="C34">
-        <v>3203</v>
+        <v>3103</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -2143,18 +2205,18 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34" s="6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34"/>
     </row>
@@ -2169,9 +2231,9 @@
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
-      <c r="M35" s="5"/>
-    </row>
-    <row r="36" ht="24" customHeight="1" spans="3:12">
+      <c r="M35"/>
+    </row>
+    <row r="36" ht="24" customHeight="1" spans="3:13">
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
@@ -2182,44 +2244,93 @@
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36"/>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="3:13">
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
+      <c r="M36"/>
+    </row>
+    <row r="37" ht="22" customHeight="1" spans="3:13">
+      <c r="C37">
+        <v>3201</v>
+      </c>
+      <c r="D37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
       <c r="H37"/>
       <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
+      <c r="J37" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
       <c r="M37"/>
     </row>
-    <row r="38" ht="24" customHeight="1" spans="3:13">
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
+    <row r="38" ht="22" customHeight="1" spans="3:13">
+      <c r="C38">
+        <v>3202</v>
+      </c>
+      <c r="D38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
       <c r="H38"/>
       <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
+      <c r="J38" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
       <c r="M38"/>
     </row>
-    <row r="39" ht="24" customHeight="1" spans="3:13">
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
+    <row r="39" ht="22" customHeight="1" spans="3:13">
+      <c r="C39">
+        <v>3203</v>
+      </c>
+      <c r="D39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
       <c r="H39"/>
       <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
+      <c r="J39" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
       <c r="M39"/>
     </row>
     <row r="40" ht="24" customHeight="1" spans="3:13">
@@ -2233,9 +2344,9 @@
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
-      <c r="M40"/>
-    </row>
-    <row r="41" ht="24" customHeight="1" spans="3:13">
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" ht="24" customHeight="1" spans="3:12">
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
@@ -2246,7 +2357,6 @@
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
-      <c r="M41"/>
     </row>
     <row r="42" ht="24" customHeight="1" spans="3:13">
       <c r="C42"/>
@@ -2443,6 +2553,71 @@
       <c r="L56"/>
       <c r="M56"/>
     </row>
+    <row r="57" ht="24" customHeight="1" spans="3:13">
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+    </row>
+    <row r="58" ht="24" customHeight="1" spans="3:13">
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+    </row>
+    <row r="59" ht="24" customHeight="1" spans="3:13">
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+    </row>
+    <row r="60" ht="24" customHeight="1" spans="3:13">
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+    </row>
+    <row r="61" ht="24" customHeight="1" spans="3:13">
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3:J3 K3 L3 M3 E4 F4 G4 H4 I4 J4 K4 L4 M4 E5 F5 G5 H5 I5 J5 K5 L5 M5 C3:C5 D4:D5" errorStyle="warning">

--- a/Excel/PlayerModel.xlsx
+++ b/Excel/PlayerModel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -26,66 +26,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>admin</author>
-  </authors>
-  <commentList>
-    <comment ref="E3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0 简单困难难
-3 噩梦</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1 简单苦难
-30 噩梦Boss
-31 噩梦首领
-32 噩梦头目</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -93,10 +35,10 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Layer</t>
-  </si>
-  <si>
-    <t>MapId</t>
+    <t>StartMapId</t>
+  </si>
+  <si>
+    <t>EndMapId</t>
   </si>
   <si>
     <t>Quality</t>
@@ -189,82 +131,58 @@
     <t>啥都不会</t>
   </si>
   <si>
-    <t>皇·基础</t>
-  </si>
-  <si>
-    <t>皇·火球</t>
-  </si>
-  <si>
-    <t>皇·火符</t>
-  </si>
-  <si>
-    <t>皇·雷电</t>
-  </si>
-  <si>
-    <t>皇·刺杀</t>
-  </si>
-  <si>
-    <t>皇·战士</t>
+    <t>皇级</t>
   </si>
   <si>
     <t>1001,1004</t>
   </si>
   <si>
-    <t>皇·法师</t>
-  </si>
-  <si>
     <t>2001,2007</t>
   </si>
   <si>
-    <t>皇·道士</t>
-  </si>
-  <si>
     <t>3002,3007</t>
   </si>
   <si>
-    <t>皇·战法</t>
-  </si>
-  <si>
     <t>1002,2003</t>
   </si>
   <si>
-    <t>皇·道法</t>
-  </si>
-  <si>
     <t>3007,2002</t>
   </si>
   <si>
-    <t>王·道士</t>
+    <t>1001,1004,1007</t>
+  </si>
+  <si>
+    <t>2001,2003,2004</t>
+  </si>
+  <si>
+    <t>3009,2001,2003</t>
+  </si>
+  <si>
+    <t>1002,1004,2003</t>
+  </si>
+  <si>
+    <t>2002,2007,2009</t>
+  </si>
+  <si>
+    <t>王级</t>
   </si>
   <si>
     <t>3001,3003</t>
   </si>
   <si>
-    <t>王·法师</t>
-  </si>
-  <si>
     <t>2002</t>
   </si>
   <si>
-    <t>王·战士</t>
-  </si>
-  <si>
     <t>1002</t>
   </si>
   <si>
-    <t>君·战士</t>
+    <t>君级</t>
   </si>
   <si>
     <t>1001</t>
   </si>
   <si>
-    <t>君·法师</t>
-  </si>
-  <si>
     <t>2001</t>
-  </si>
-  <si>
-    <t>君·道士</t>
   </si>
 </sst>
 </file>
@@ -277,7 +195,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,17 +360,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -908,7 +815,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -916,9 +823,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1238,10 +1147,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1422,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1069</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1451,14 +1360,14 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1069</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="K7">
@@ -1480,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1069</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1509,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1069</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1538,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1069</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1567,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1069</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1596,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1069</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1625,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1069</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1654,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1069</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1683,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1069</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1712,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1069</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1741,14 +1650,14 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1069</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="7" t="s">
         <v>29</v>
       </c>
       <c r="K17">
@@ -1770,14 +1679,14 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1069</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="8" t="s">
         <v>31</v>
       </c>
       <c r="K18">
@@ -1799,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1069</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1838,7 +1747,7 @@
         <v>34</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1070</v>
       </c>
       <c r="F21">
         <v>1070</v>
@@ -1864,10 +1773,10 @@
         <v>3002</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1071</v>
       </c>
       <c r="F22">
         <v>1071</v>
@@ -1893,10 +1802,10 @@
         <v>3003</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1072</v>
       </c>
       <c r="F23">
         <v>1072</v>
@@ -1922,10 +1831,10 @@
         <v>3004</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1073</v>
       </c>
       <c r="F24">
         <v>1073</v>
@@ -1951,10 +1860,10 @@
         <v>3005</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1074</v>
       </c>
       <c r="F25">
         <v>1074</v>
@@ -1980,10 +1889,10 @@
         <v>3006</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1075</v>
       </c>
       <c r="F26">
         <v>1075</v>
@@ -1993,8 +1902,8 @@
       </c>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="J26" s="6" t="s">
-        <v>40</v>
+      <c r="J26" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="K26">
         <v>4</v>
@@ -2009,10 +1918,10 @@
         <v>3007</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1076</v>
       </c>
       <c r="F27">
         <v>1076</v>
@@ -2022,8 +1931,8 @@
       </c>
       <c r="H27"/>
       <c r="I27"/>
-      <c r="J27" s="6" t="s">
-        <v>42</v>
+      <c r="J27" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="K27">
         <v>4</v>
@@ -2038,10 +1947,10 @@
         <v>3008</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1077</v>
       </c>
       <c r="F28">
         <v>1077</v>
@@ -2051,8 +1960,8 @@
       </c>
       <c r="H28"/>
       <c r="I28"/>
-      <c r="J28" s="6" t="s">
-        <v>44</v>
+      <c r="J28" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -2067,10 +1976,10 @@
         <v>3009</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1078</v>
       </c>
       <c r="F29">
         <v>1078</v>
@@ -2080,8 +1989,8 @@
       </c>
       <c r="H29"/>
       <c r="I29"/>
-      <c r="J29" s="6" t="s">
-        <v>46</v>
+      <c r="J29" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="K29">
         <v>4</v>
@@ -2096,10 +2005,10 @@
         <v>3010</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1079</v>
       </c>
       <c r="F30">
         <v>1079</v>
@@ -2109,8 +2018,8 @@
       </c>
       <c r="H30"/>
       <c r="I30"/>
-      <c r="J30" s="6" t="s">
-        <v>48</v>
+      <c r="J30" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="K30">
         <v>4</v>
@@ -2121,116 +2030,148 @@
       <c r="M30"/>
     </row>
     <row r="31" ht="24" customHeight="1" spans="3:13">
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
+      <c r="C31">
+        <v>3011</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31">
+        <v>1080</v>
+      </c>
+      <c r="F31">
+        <v>1080</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
       <c r="H31"/>
       <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <v>4</v>
+      </c>
       <c r="M31"/>
     </row>
     <row r="32" ht="24" customHeight="1" spans="3:13">
       <c r="C32">
-        <v>3101</v>
+        <v>3012</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1081</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1081</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
-      <c r="J32" s="6" t="s">
-        <v>50</v>
+      <c r="J32" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M32"/>
     </row>
     <row r="33" ht="24" customHeight="1" spans="3:13">
       <c r="C33">
-        <v>3102</v>
+        <v>3013</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1082</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1082</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
-      <c r="J33" s="6" t="s">
-        <v>52</v>
+      <c r="J33" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M33"/>
     </row>
     <row r="34" ht="24" customHeight="1" spans="3:13">
       <c r="C34">
-        <v>3103</v>
+        <v>3014</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1083</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1083</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
-      <c r="J34" s="6" t="s">
-        <v>54</v>
+      <c r="J34" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M34"/>
     </row>
     <row r="35" ht="24" customHeight="1" spans="3:13">
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
+      <c r="C35">
+        <v>3015</v>
+      </c>
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35">
+        <v>1084</v>
+      </c>
+      <c r="F35">
+        <v>1084</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
       <c r="H35"/>
       <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
+      <c r="J35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+      <c r="L35">
+        <v>4</v>
+      </c>
       <c r="M35"/>
     </row>
     <row r="36" ht="24" customHeight="1" spans="3:13">
@@ -2246,90 +2187,90 @@
       <c r="L36"/>
       <c r="M36"/>
     </row>
-    <row r="37" ht="22" customHeight="1" spans="3:13">
+    <row r="37" ht="24" customHeight="1" spans="3:13">
       <c r="C37">
-        <v>3201</v>
+        <v>3101</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1070</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1104</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H37"/>
       <c r="I37"/>
-      <c r="J37" s="6" t="s">
-        <v>56</v>
+      <c r="J37" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37"/>
     </row>
-    <row r="38" ht="22" customHeight="1" spans="3:13">
+    <row r="38" ht="24" customHeight="1" spans="3:13">
       <c r="C38">
-        <v>3202</v>
+        <v>3102</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>1070</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1104</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H38"/>
       <c r="I38"/>
-      <c r="J38" s="6" t="s">
-        <v>58</v>
+      <c r="J38" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38"/>
     </row>
-    <row r="39" ht="22" customHeight="1" spans="3:13">
+    <row r="39" ht="24" customHeight="1" spans="3:13">
       <c r="C39">
-        <v>3203</v>
+        <v>3103</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>1070</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1104</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H39"/>
       <c r="I39"/>
-      <c r="J39" s="6" t="s">
-        <v>50</v>
+      <c r="J39" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39"/>
     </row>
@@ -2344,9 +2285,9 @@
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
-      <c r="M40" s="5"/>
-    </row>
-    <row r="41" ht="24" customHeight="1" spans="3:12">
+      <c r="M40"/>
+    </row>
+    <row r="41" ht="24" customHeight="1" spans="3:13">
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
@@ -2357,44 +2298,93 @@
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
-    </row>
-    <row r="42" ht="24" customHeight="1" spans="3:13">
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
+      <c r="M41"/>
+    </row>
+    <row r="42" ht="22" customHeight="1" spans="3:13">
+      <c r="C42">
+        <v>3201</v>
+      </c>
+      <c r="D42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42">
+        <v>1070</v>
+      </c>
+      <c r="F42">
+        <v>1104</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
       <c r="H42"/>
       <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
+      <c r="J42" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
       <c r="M42"/>
     </row>
-    <row r="43" ht="24" customHeight="1" spans="3:13">
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
+    <row r="43" ht="22" customHeight="1" spans="3:13">
+      <c r="C43">
+        <v>3202</v>
+      </c>
+      <c r="D43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43">
+        <v>1070</v>
+      </c>
+      <c r="F43">
+        <v>1104</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
       <c r="H43"/>
       <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
+      <c r="J43" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
       <c r="M43"/>
     </row>
-    <row r="44" ht="24" customHeight="1" spans="3:13">
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
+    <row r="44" ht="22" customHeight="1" spans="3:13">
+      <c r="C44">
+        <v>3203</v>
+      </c>
+      <c r="D44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44">
+        <v>1070</v>
+      </c>
+      <c r="F44">
+        <v>1104</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
       <c r="H44"/>
       <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
+      <c r="J44" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
       <c r="M44"/>
     </row>
     <row r="45" ht="24" customHeight="1" spans="3:13">
@@ -2408,9 +2398,9 @@
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
-      <c r="M45"/>
-    </row>
-    <row r="46" ht="24" customHeight="1" spans="3:13">
+      <c r="M45" s="6"/>
+    </row>
+    <row r="46" ht="24" customHeight="1" spans="3:12">
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
@@ -2421,7 +2411,6 @@
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
-      <c r="M46"/>
     </row>
     <row r="47" ht="24" customHeight="1" spans="3:13">
       <c r="C47"/>
@@ -2618,6 +2607,71 @@
       <c r="L61"/>
       <c r="M61"/>
     </row>
+    <row r="62" ht="24" customHeight="1" spans="3:13">
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+    </row>
+    <row r="63" ht="24" customHeight="1" spans="3:13">
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+    </row>
+    <row r="64" ht="24" customHeight="1" spans="3:13">
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+    </row>
+    <row r="65" ht="24" customHeight="1" spans="3:13">
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+    </row>
+    <row r="66" ht="24" customHeight="1" spans="3:13">
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3:J3 K3 L3 M3 E4 F4 G4 H4 I4 J4 K4 L4 M4 E5 F5 G5 H5 I5 J5 K5 L5 M5 C3:C5 D4:D5" errorStyle="warning">
@@ -2626,6 +2680,5 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/PlayerModel.xlsx
+++ b/Excel/PlayerModel.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -164,6 +164,12 @@
     <t>2002,2007,2009</t>
   </si>
   <si>
+    <t>2001,2002,2003,2007,2008</t>
+  </si>
+  <si>
+    <t>1001,1002,1004,1007,1008</t>
+  </si>
+  <si>
     <t>王级</t>
   </si>
   <si>
@@ -174,6 +180,12 @@
   </si>
   <si>
     <t>1002</t>
+  </si>
+  <si>
+    <t>1001,1002,1003</t>
+  </si>
+  <si>
+    <t>2001,2002,2003</t>
   </si>
   <si>
     <t>君级</t>
@@ -815,7 +827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -824,7 +836,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
@@ -1147,10 +1158,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1161,7 +1172,8 @@
     <col min="4" max="7" width="12.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="21.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="22.75" style="2" customWidth="1"/>
-    <col min="10" max="13" width="20.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.5583333333333" style="2" customWidth="1"/>
+    <col min="11" max="13" width="20.75" style="2" customWidth="1"/>
     <col min="14" max="14" width="46" style="2" customWidth="1"/>
     <col min="15" max="15" width="13.625" style="2" customWidth="1"/>
     <col min="16" max="16" width="8.125" style="2" customWidth="1"/>
@@ -1367,7 +1379,7 @@
       </c>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="K7">
@@ -1657,7 +1669,7 @@
       </c>
       <c r="H17"/>
       <c r="I17"/>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="6" t="s">
         <v>29</v>
       </c>
       <c r="K17">
@@ -1686,7 +1698,7 @@
       </c>
       <c r="H18"/>
       <c r="I18"/>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K18">
@@ -1902,7 +1914,7 @@
       </c>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="6" t="s">
         <v>35</v>
       </c>
       <c r="K26">
@@ -1931,7 +1943,7 @@
       </c>
       <c r="H27"/>
       <c r="I27"/>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="6" t="s">
         <v>36</v>
       </c>
       <c r="K27">
@@ -1960,7 +1972,7 @@
       </c>
       <c r="H28"/>
       <c r="I28"/>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="6" t="s">
         <v>37</v>
       </c>
       <c r="K28">
@@ -1989,7 +2001,7 @@
       </c>
       <c r="H29"/>
       <c r="I29"/>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="6" t="s">
         <v>38</v>
       </c>
       <c r="K29">
@@ -2018,7 +2030,7 @@
       </c>
       <c r="H30"/>
       <c r="I30"/>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="6" t="s">
         <v>39</v>
       </c>
       <c r="K30">
@@ -2047,7 +2059,7 @@
       </c>
       <c r="H31"/>
       <c r="I31"/>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="6" t="s">
         <v>40</v>
       </c>
       <c r="K31">
@@ -2076,7 +2088,7 @@
       </c>
       <c r="H32"/>
       <c r="I32"/>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="6" t="s">
         <v>41</v>
       </c>
       <c r="K32">
@@ -2105,7 +2117,7 @@
       </c>
       <c r="H33"/>
       <c r="I33"/>
-      <c r="J33" s="7" t="s">
+      <c r="J33" s="6" t="s">
         <v>42</v>
       </c>
       <c r="K33">
@@ -2134,7 +2146,7 @@
       </c>
       <c r="H34"/>
       <c r="I34"/>
-      <c r="J34" s="9" t="s">
+      <c r="J34" s="8" t="s">
         <v>43</v>
       </c>
       <c r="K34">
@@ -2163,7 +2175,7 @@
       </c>
       <c r="H35"/>
       <c r="I35"/>
-      <c r="J35" s="7" t="s">
+      <c r="J35" s="6" t="s">
         <v>44</v>
       </c>
       <c r="K35">
@@ -2175,95 +2187,95 @@
       <c r="M35"/>
     </row>
     <row r="36" ht="24" customHeight="1" spans="3:13">
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
+      <c r="C36">
+        <v>3016</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36">
+        <v>1085</v>
+      </c>
+      <c r="F36">
+        <v>1089</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
       <c r="H36"/>
       <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
+      <c r="J36" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
       <c r="M36"/>
     </row>
     <row r="37" ht="24" customHeight="1" spans="3:13">
       <c r="C37">
-        <v>3101</v>
+        <v>3017</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E37">
-        <v>1070</v>
+        <v>1085</v>
       </c>
       <c r="F37">
-        <v>1104</v>
+        <v>1089</v>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H37"/>
       <c r="I37"/>
-      <c r="J37" s="7" t="s">
+      <c r="J37" s="6" t="s">
         <v>46</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M37"/>
     </row>
     <row r="38" ht="24" customHeight="1" spans="3:13">
-      <c r="C38">
-        <v>3102</v>
-      </c>
-      <c r="D38" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38">
-        <v>1070</v>
-      </c>
-      <c r="F38">
-        <v>1104</v>
-      </c>
-      <c r="G38">
-        <v>4</v>
-      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
-      <c r="J38" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K38">
-        <v>3</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
       <c r="M38"/>
     </row>
     <row r="39" ht="24" customHeight="1" spans="3:13">
       <c r="C39">
-        <v>3103</v>
+        <v>3101</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E39">
         <v>1070</v>
       </c>
       <c r="F39">
-        <v>1104</v>
+        <v>1084</v>
       </c>
       <c r="G39">
         <v>4</v>
       </c>
       <c r="H39"/>
       <c r="I39"/>
-      <c r="J39" s="7" t="s">
+      <c r="J39" s="6" t="s">
         <v>48</v>
       </c>
       <c r="K39">
@@ -2275,154 +2287,219 @@
       <c r="M39"/>
     </row>
     <row r="40" ht="24" customHeight="1" spans="3:13">
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
+      <c r="C40">
+        <v>3102</v>
+      </c>
+      <c r="D40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40">
+        <v>1070</v>
+      </c>
+      <c r="F40">
+        <v>1084</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
       <c r="H40"/>
       <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
+      <c r="J40" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
       <c r="M40"/>
     </row>
     <row r="41" ht="24" customHeight="1" spans="3:13">
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
+      <c r="C41">
+        <v>3103</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41">
+        <v>1070</v>
+      </c>
+      <c r="F41">
+        <v>1084</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
       <c r="H41"/>
       <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
+      <c r="J41" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
       <c r="M41"/>
     </row>
-    <row r="42" ht="22" customHeight="1" spans="3:13">
+    <row r="42" ht="24" customHeight="1" spans="3:13">
       <c r="C42">
-        <v>3201</v>
+        <v>3104</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E42">
-        <v>1070</v>
+        <v>1085</v>
       </c>
       <c r="F42">
         <v>1104</v>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H42"/>
       <c r="I42"/>
-      <c r="J42" s="7" t="s">
-        <v>50</v>
+      <c r="J42" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42"/>
     </row>
-    <row r="43" ht="22" customHeight="1" spans="3:13">
+    <row r="43" ht="24" customHeight="1" spans="3:13">
       <c r="C43">
-        <v>3202</v>
+        <v>3105</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E43">
-        <v>1070</v>
+        <v>1085</v>
       </c>
       <c r="F43">
         <v>1104</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H43"/>
       <c r="I43"/>
-      <c r="J43" s="7" t="s">
-        <v>51</v>
+      <c r="J43" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43"/>
     </row>
-    <row r="44" ht="22" customHeight="1" spans="3:13">
-      <c r="C44">
-        <v>3203</v>
-      </c>
-      <c r="D44" t="s">
-        <v>49</v>
-      </c>
-      <c r="E44">
-        <v>1070</v>
-      </c>
-      <c r="F44">
-        <v>1104</v>
-      </c>
-      <c r="G44">
-        <v>3</v>
-      </c>
+    <row r="44" ht="24" customHeight="1" spans="3:13">
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
-      <c r="J44" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K44">
-        <v>2</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
       <c r="M44"/>
     </row>
-    <row r="45" ht="24" customHeight="1" spans="3:13">
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
+    <row r="45" ht="22" customHeight="1" spans="3:13">
+      <c r="C45">
+        <v>3201</v>
+      </c>
+      <c r="D45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45">
+        <v>1070</v>
+      </c>
+      <c r="F45">
+        <v>1104</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
       <c r="H45"/>
       <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45" s="6"/>
-    </row>
-    <row r="46" ht="24" customHeight="1" spans="3:12">
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
+      <c r="J45" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45"/>
+    </row>
+    <row r="46" ht="22" customHeight="1" spans="3:13">
+      <c r="C46">
+        <v>3202</v>
+      </c>
+      <c r="D46" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46">
+        <v>1070</v>
+      </c>
+      <c r="F46">
+        <v>1104</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
       <c r="H46"/>
       <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-    </row>
-    <row r="47" ht="24" customHeight="1" spans="3:13">
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
+      <c r="J46" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46"/>
+    </row>
+    <row r="47" ht="22" customHeight="1" spans="3:13">
+      <c r="C47">
+        <v>3203</v>
+      </c>
+      <c r="D47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47">
+        <v>1070</v>
+      </c>
+      <c r="F47">
+        <v>1104</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
       <c r="H47"/>
       <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
+      <c r="J47" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
       <c r="M47"/>
     </row>
     <row r="48" ht="24" customHeight="1" spans="3:13">
@@ -2672,6 +2749,19 @@
       <c r="L66"/>
       <c r="M66"/>
     </row>
+    <row r="67" ht="24" customHeight="1" spans="3:13">
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3:J3 K3 L3 M3 E4 F4 G4 H4 I4 J4 K4 L4 M4 E5 F5 G5 H5 I5 J5 K5 L5 M5 C3:C5 D4:D5" errorStyle="warning">

--- a/Excel/PlayerModel.xlsx
+++ b/Excel/PlayerModel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1161,7 +1161,7 @@
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2197,7 +2197,7 @@
         <v>1085</v>
       </c>
       <c r="F36">
-        <v>1089</v>
+        <v>1104</v>
       </c>
       <c r="G36">
         <v>5</v>
@@ -2226,7 +2226,7 @@
         <v>1085</v>
       </c>
       <c r="F37">
-        <v>1089</v>
+        <v>1104</v>
       </c>
       <c r="G37">
         <v>5</v>

--- a/Excel/PlayerModel.xlsx
+++ b/Excel/PlayerModel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -155,7 +155,7 @@
     <t>2001,2003,2004</t>
   </si>
   <si>
-    <t>3009,2001,2003</t>
+    <t>1009,2001,2003</t>
   </si>
   <si>
     <t>1002,1004,2003</t>
@@ -1160,8 +1160,8 @@
   <sheetPr/>
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2764,7 +2764,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3:J3 K3 L3 M3 E4 F4 G4 H4 I4 J4 K4 L4 M4 E5 F5 G5 H5 I5 J5 K5 L5 M5 C3:C5 D4:D5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3:M3 E4:M4 E5:M5 C3:C5 D4:D5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/PlayerModel.xlsx
+++ b/Excel/PlayerModel.xlsx
@@ -134,22 +134,22 @@
     <t>皇级</t>
   </si>
   <si>
-    <t>1001,1004</t>
-  </si>
-  <si>
-    <t>2001,2007</t>
-  </si>
-  <si>
-    <t>3002,3007</t>
-  </si>
-  <si>
-    <t>1002,2003</t>
-  </si>
-  <si>
-    <t>3007,2002</t>
-  </si>
-  <si>
-    <t>1001,1004,1007</t>
+    <t>1001,1002,2001</t>
+  </si>
+  <si>
+    <t>2001,2007,1007</t>
+  </si>
+  <si>
+    <t>3002,3007,1009</t>
+  </si>
+  <si>
+    <t>1002,2003,2002</t>
+  </si>
+  <si>
+    <t>3003,2002,1007</t>
+  </si>
+  <si>
+    <t>2001,1002,1009</t>
   </si>
   <si>
     <t>2001,2003,2004</t>
@@ -158,7 +158,7 @@
     <t>1009,2001,2003</t>
   </si>
   <si>
-    <t>1002,1004,2003</t>
+    <t>1002,1009,2003</t>
   </si>
   <si>
     <t>2002,2007,2009</t>
@@ -167,7 +167,7 @@
     <t>2001,2002,2003,2007,2008</t>
   </si>
   <si>
-    <t>1001,1002,1004,1007,1008</t>
+    <t>1001,1002,1007,1008</t>
   </si>
   <si>
     <t>王级</t>
@@ -1160,8 +1160,8 @@
   <sheetPr/>
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2764,7 +2764,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3:M3 E4:M4 E5:M5 C3:C5 D4:D5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:M5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/PlayerModel.xlsx
+++ b/Excel/PlayerModel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>2001</t>
+  </si>
+  <si>
+    <t>将级</t>
   </si>
 </sst>
 </file>
@@ -1160,8 +1163,8 @@
   <sheetPr/>
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2197,7 +2200,7 @@
         <v>1085</v>
       </c>
       <c r="F36">
-        <v>1104</v>
+        <v>1139</v>
       </c>
       <c r="G36">
         <v>5</v>
@@ -2226,7 +2229,7 @@
         <v>1085</v>
       </c>
       <c r="F37">
-        <v>1104</v>
+        <v>1139</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -2355,7 +2358,7 @@
         <v>1085</v>
       </c>
       <c r="F42">
-        <v>1104</v>
+        <v>1139</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -2384,7 +2387,7 @@
         <v>1085</v>
       </c>
       <c r="F43">
-        <v>1104</v>
+        <v>1139</v>
       </c>
       <c r="G43">
         <v>4</v>
@@ -2426,7 +2429,7 @@
         <v>1070</v>
       </c>
       <c r="F45">
-        <v>1104</v>
+        <v>1139</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -2455,7 +2458,7 @@
         <v>1070</v>
       </c>
       <c r="F46">
-        <v>1104</v>
+        <v>1139</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -2484,7 +2487,7 @@
         <v>1070</v>
       </c>
       <c r="F47">
-        <v>1104</v>
+        <v>1139</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -2515,17 +2518,33 @@
       <c r="L48"/>
       <c r="M48"/>
     </row>
-    <row r="49" ht="24" customHeight="1" spans="3:13">
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
+    <row r="49" ht="22" customHeight="1" spans="3:13">
+      <c r="C49">
+        <v>3301</v>
+      </c>
+      <c r="D49" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49">
+        <v>1105</v>
+      </c>
+      <c r="F49">
+        <v>1139</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
       <c r="H49"/>
       <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
+      <c r="J49" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
       <c r="M49"/>
     </row>
     <row r="50" ht="24" customHeight="1" spans="3:13">

--- a/Excel/PlayerModel.xlsx
+++ b/Excel/PlayerModel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -170,6 +170,18 @@
     <t>1001,1002,1007,1008</t>
   </si>
   <si>
+    <t>天级</t>
+  </si>
+  <si>
+    <t>2002,2003,2007,2008,2009,2010</t>
+  </si>
+  <si>
+    <t>1001,1002,1004,1007,1008,1010</t>
+  </si>
+  <si>
+    <t>1002,2002,1004,2007,1010,2010</t>
+  </si>
+  <si>
     <t>王级</t>
   </si>
   <si>
@@ -186,6 +198,18 @@
   </si>
   <si>
     <t>2001,2002,2003</t>
+  </si>
+  <si>
+    <t>地级</t>
+  </si>
+  <si>
+    <t>1001,1002,1003,1007</t>
+  </si>
+  <si>
+    <t>2001,2002,2003,2004</t>
+  </si>
+  <si>
+    <t>3001,3002,3003</t>
   </si>
   <si>
     <t>君级</t>
@@ -210,7 +234,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,16 +243,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -700,147 +730,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -894,6 +927,15 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1161,13 +1203,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
@@ -1175,13 +1217,14 @@
     <col min="4" max="7" width="12.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="21.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="22.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.5583333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="35.875" style="2" customWidth="1"/>
     <col min="11" max="13" width="20.75" style="2" customWidth="1"/>
     <col min="14" max="14" width="46" style="2" customWidth="1"/>
     <col min="15" max="15" width="13.625" style="2" customWidth="1"/>
     <col min="16" max="16" width="8.125" style="2" customWidth="1"/>
     <col min="17" max="17" width="9.625" style="2" customWidth="1"/>
     <col min="18" max="16383" width="9" style="2"/>
+    <col min="16384" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:17">
@@ -1215,37 +1258,37 @@
     <row r="3" s="1" customFormat="1" spans="1:17">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="2"/>
@@ -1256,37 +1299,37 @@
     <row r="4" s="1" customFormat="1" spans="1:17">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="2"/>
@@ -1297,37 +1340,37 @@
     <row r="5" s="1" customFormat="1" spans="1:17">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N5" s="2"/>
@@ -1336,1453 +1379,1673 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" ht="24" customHeight="1" spans="3:13">
-      <c r="C6">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
         <v>1069</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6">
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
         <v>11002</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6"/>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" ht="24" customHeight="1" spans="3:13">
-      <c r="C7">
+      <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
         <v>1069</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7" s="6" t="s">
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7"/>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" ht="24" customHeight="1" spans="3:13">
-      <c r="C8">
+      <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>1069</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8">
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3">
         <v>11007</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8"/>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3"/>
     </row>
     <row r="9" ht="24" customHeight="1" spans="3:13">
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>1069</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9">
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
         <v>12001</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9"/>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" ht="24" customHeight="1" spans="3:13">
-      <c r="C10">
+      <c r="C10" s="3">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>1069</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10">
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3">
         <v>12002</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10"/>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" ht="24" customHeight="1" spans="3:13">
-      <c r="C11">
+      <c r="C11" s="3">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
         <v>1069</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11">
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3">
         <v>12003</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11"/>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:13">
-      <c r="C12">
+      <c r="C12" s="3">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>1069</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12">
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3">
         <v>12004</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12"/>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" ht="24" customHeight="1" spans="3:13">
-      <c r="C13">
+      <c r="C13" s="3">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
         <v>1069</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13">
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
         <v>12007</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13"/>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" ht="24" customHeight="1" spans="3:13">
-      <c r="C14">
+      <c r="C14" s="3">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1069</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
         <v>13001</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14"/>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" ht="24" customHeight="1" spans="3:13">
-      <c r="C15">
+      <c r="C15" s="3">
         <v>10</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>1069</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15">
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
         <v>13002</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15"/>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" ht="24" customHeight="1" spans="3:13">
-      <c r="C16">
+      <c r="C16" s="3">
         <v>11</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
         <v>1069</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16">
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3">
         <v>13003</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16"/>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3"/>
     </row>
     <row r="17" ht="24" customHeight="1" spans="3:13">
-      <c r="C17">
+      <c r="C17" s="3">
         <v>12</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>1069</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17" s="6" t="s">
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17"/>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3"/>
     </row>
     <row r="18" ht="24" customHeight="1" spans="3:13">
-      <c r="C18">
+      <c r="C18" s="3">
         <v>13</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>1069</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18" s="7" t="s">
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18"/>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3"/>
     </row>
     <row r="19" ht="24" customHeight="1" spans="3:13">
-      <c r="C19">
+      <c r="C19" s="3">
         <v>14</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
         <v>1069</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" ht="24" customHeight="1" spans="3:13">
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
     </row>
     <row r="21" ht="24" customHeight="1" spans="3:13">
-      <c r="C21">
+      <c r="C21" s="3">
         <v>3001</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>1070</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>1070</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>5</v>
       </c>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21">
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3">
         <v>1001</v>
       </c>
-      <c r="K21">
-        <v>4</v>
-      </c>
-      <c r="L21">
-        <v>4</v>
-      </c>
-      <c r="M21"/>
+      <c r="K21" s="3">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3"/>
     </row>
     <row r="22" ht="24" customHeight="1" spans="3:13">
-      <c r="C22">
+      <c r="C22" s="3">
         <v>3002</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>1071</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>1071</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>5</v>
       </c>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3">
         <v>2001</v>
       </c>
-      <c r="K22">
-        <v>4</v>
-      </c>
-      <c r="L22">
-        <v>4</v>
-      </c>
-      <c r="M22"/>
+      <c r="K22" s="3">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3"/>
     </row>
     <row r="23" ht="24" customHeight="1" spans="3:13">
-      <c r="C23">
+      <c r="C23" s="3">
         <v>3003</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>1072</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>1072</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>5</v>
       </c>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3">
         <v>3002</v>
       </c>
-      <c r="K23">
-        <v>4</v>
-      </c>
-      <c r="L23">
-        <v>4</v>
-      </c>
-      <c r="M23"/>
+      <c r="K23" s="3">
+        <v>4</v>
+      </c>
+      <c r="L23" s="3">
+        <v>4</v>
+      </c>
+      <c r="M23" s="3"/>
     </row>
     <row r="24" ht="24" customHeight="1" spans="3:13">
-      <c r="C24">
+      <c r="C24" s="3">
         <v>3004</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>1073</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>1073</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>5</v>
       </c>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3">
         <v>2002</v>
       </c>
-      <c r="K24">
-        <v>4</v>
-      </c>
-      <c r="L24">
-        <v>4</v>
-      </c>
-      <c r="M24"/>
+      <c r="K24" s="3">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3">
+        <v>4</v>
+      </c>
+      <c r="M24" s="3"/>
     </row>
     <row r="25" ht="24" customHeight="1" spans="3:13">
-      <c r="C25">
+      <c r="C25" s="3">
         <v>3005</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>1074</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>1074</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>5</v>
       </c>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3">
         <v>1002</v>
       </c>
-      <c r="K25">
-        <v>4</v>
-      </c>
-      <c r="L25">
-        <v>4</v>
-      </c>
-      <c r="M25"/>
+      <c r="K25" s="3">
+        <v>4</v>
+      </c>
+      <c r="L25" s="3">
+        <v>4</v>
+      </c>
+      <c r="M25" s="3"/>
     </row>
     <row r="26" ht="24" customHeight="1" spans="3:13">
-      <c r="C26">
+      <c r="C26" s="3">
         <v>3006</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>1075</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>1075</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>5</v>
       </c>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26" s="6" t="s">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K26">
-        <v>4</v>
-      </c>
-      <c r="L26">
-        <v>4</v>
-      </c>
-      <c r="M26"/>
+      <c r="K26" s="3">
+        <v>4</v>
+      </c>
+      <c r="L26" s="3">
+        <v>4</v>
+      </c>
+      <c r="M26" s="3"/>
     </row>
     <row r="27" ht="24" customHeight="1" spans="3:13">
-      <c r="C27">
+      <c r="C27" s="3">
         <v>3007</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>1076</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>1076</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
         <v>5</v>
       </c>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27" s="6" t="s">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K27">
-        <v>4</v>
-      </c>
-      <c r="L27">
-        <v>4</v>
-      </c>
-      <c r="M27"/>
+      <c r="K27" s="3">
+        <v>4</v>
+      </c>
+      <c r="L27" s="3">
+        <v>4</v>
+      </c>
+      <c r="M27" s="3"/>
     </row>
     <row r="28" ht="24" customHeight="1" spans="3:13">
-      <c r="C28">
+      <c r="C28" s="3">
         <v>3008</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>1077</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>1077</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
         <v>5</v>
       </c>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28" s="6" t="s">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K28">
-        <v>4</v>
-      </c>
-      <c r="L28">
-        <v>4</v>
-      </c>
-      <c r="M28"/>
+      <c r="K28" s="3">
+        <v>4</v>
+      </c>
+      <c r="L28" s="3">
+        <v>4</v>
+      </c>
+      <c r="M28" s="3"/>
     </row>
     <row r="29" ht="24" customHeight="1" spans="3:13">
-      <c r="C29">
+      <c r="C29" s="3">
         <v>3009</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>1078</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>1078</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <v>5</v>
       </c>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29" s="6" t="s">
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K29">
-        <v>4</v>
-      </c>
-      <c r="L29">
-        <v>4</v>
-      </c>
-      <c r="M29"/>
+      <c r="K29" s="3">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3">
+        <v>4</v>
+      </c>
+      <c r="M29" s="3"/>
     </row>
     <row r="30" ht="24" customHeight="1" spans="3:13">
-      <c r="C30">
+      <c r="C30" s="3">
         <v>3010</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>1079</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>1079</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>5</v>
       </c>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30" s="6" t="s">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K30">
-        <v>4</v>
-      </c>
-      <c r="L30">
-        <v>4</v>
-      </c>
-      <c r="M30"/>
+      <c r="K30" s="3">
+        <v>4</v>
+      </c>
+      <c r="L30" s="3">
+        <v>4</v>
+      </c>
+      <c r="M30" s="3"/>
     </row>
     <row r="31" ht="24" customHeight="1" spans="3:13">
-      <c r="C31">
+      <c r="C31" s="3">
         <v>3011</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>1080</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>1080</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>5</v>
       </c>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31" s="6" t="s">
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K31">
-        <v>4</v>
-      </c>
-      <c r="L31">
-        <v>4</v>
-      </c>
-      <c r="M31"/>
+      <c r="K31" s="3">
+        <v>4</v>
+      </c>
+      <c r="L31" s="3">
+        <v>4</v>
+      </c>
+      <c r="M31" s="3"/>
     </row>
     <row r="32" ht="24" customHeight="1" spans="3:13">
-      <c r="C32">
+      <c r="C32" s="3">
         <v>3012</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>1081</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>1081</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
         <v>5</v>
       </c>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32" s="6" t="s">
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K32">
-        <v>4</v>
-      </c>
-      <c r="L32">
-        <v>4</v>
-      </c>
-      <c r="M32"/>
+      <c r="K32" s="3">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3"/>
     </row>
     <row r="33" ht="24" customHeight="1" spans="3:13">
-      <c r="C33">
+      <c r="C33" s="3">
         <v>3013</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>1082</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>1082</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="3">
         <v>5</v>
       </c>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33" s="6" t="s">
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K33">
-        <v>4</v>
-      </c>
-      <c r="L33">
-        <v>4</v>
-      </c>
-      <c r="M33"/>
+      <c r="K33" s="3">
+        <v>4</v>
+      </c>
+      <c r="L33" s="3">
+        <v>4</v>
+      </c>
+      <c r="M33" s="3"/>
     </row>
     <row r="34" ht="24" customHeight="1" spans="3:13">
-      <c r="C34">
+      <c r="C34" s="3">
         <v>3014</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <v>1083</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>1083</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="3">
         <v>5</v>
       </c>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34" s="8" t="s">
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K34">
-        <v>4</v>
-      </c>
-      <c r="L34">
-        <v>4</v>
-      </c>
-      <c r="M34"/>
+      <c r="K34" s="3">
+        <v>4</v>
+      </c>
+      <c r="L34" s="3">
+        <v>4</v>
+      </c>
+      <c r="M34" s="3"/>
     </row>
     <row r="35" ht="24" customHeight="1" spans="3:13">
-      <c r="C35">
+      <c r="C35" s="3">
         <v>3015</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>1084</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>1084</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="3">
         <v>5</v>
       </c>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35" s="6" t="s">
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K35">
-        <v>4</v>
-      </c>
-      <c r="L35">
-        <v>4</v>
-      </c>
-      <c r="M35"/>
+      <c r="K35" s="3">
+        <v>4</v>
+      </c>
+      <c r="L35" s="3">
+        <v>4</v>
+      </c>
+      <c r="M35" s="3"/>
     </row>
     <row r="36" ht="24" customHeight="1" spans="3:13">
-      <c r="C36">
+      <c r="C36" s="3">
         <v>3016</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <v>1085</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="6">
+        <v>1104</v>
+      </c>
+      <c r="G36" s="3">
+        <v>5</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K36" s="3">
+        <v>4</v>
+      </c>
+      <c r="L36" s="3">
+        <v>4</v>
+      </c>
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" ht="24" customHeight="1" spans="3:13">
+      <c r="C37" s="3">
+        <v>3017</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1085</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1104</v>
+      </c>
+      <c r="G37" s="3">
+        <v>5</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K37" s="3">
+        <v>4</v>
+      </c>
+      <c r="L37" s="3">
+        <v>4</v>
+      </c>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="3:13">
+      <c r="C38" s="3">
+        <v>3018</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1105</v>
+      </c>
+      <c r="F38" s="3">
         <v>1139</v>
       </c>
-      <c r="G36">
+      <c r="G38" s="3">
         <v>5</v>
       </c>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K36">
-        <v>4</v>
-      </c>
-      <c r="L36">
-        <v>4</v>
-      </c>
-      <c r="M36"/>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="3:13">
-      <c r="C37">
-        <v>3017</v>
-      </c>
-      <c r="D37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37">
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38" s="3">
+        <v>5</v>
+      </c>
+      <c r="L38" s="3">
+        <v>5</v>
+      </c>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="3:13">
+      <c r="C39" s="3">
+        <v>3019</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1105</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1139</v>
+      </c>
+      <c r="G39" s="3">
+        <v>5</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K39" s="3">
+        <v>5</v>
+      </c>
+      <c r="L39" s="3">
+        <v>5</v>
+      </c>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="3:13">
+      <c r="C40" s="3">
+        <v>3020</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1105</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1139</v>
+      </c>
+      <c r="G40" s="3">
+        <v>5</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K40" s="3">
+        <v>5</v>
+      </c>
+      <c r="L40" s="3">
+        <v>5</v>
+      </c>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" ht="24" customHeight="1" spans="3:13">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" ht="24" customHeight="1" spans="3:13">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" ht="24" customHeight="1" spans="3:13">
+      <c r="C43" s="3">
+        <v>3101</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1070</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1084</v>
+      </c>
+      <c r="G43" s="3">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K43" s="3">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" ht="24" customHeight="1" spans="3:13">
+      <c r="C44" s="3">
+        <v>3102</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1070</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1084</v>
+      </c>
+      <c r="G44" s="3">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K44" s="3">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3">
+        <v>1</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" ht="24" customHeight="1" spans="3:13">
+      <c r="C45" s="3">
+        <v>3103</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1070</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1084</v>
+      </c>
+      <c r="G45" s="3">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K45" s="3">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3">
+        <v>1</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" ht="24" customHeight="1" spans="3:13">
+      <c r="C46" s="3">
+        <v>3104</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="3">
         <v>1085</v>
       </c>
-      <c r="F37">
+      <c r="F46" s="6">
+        <v>1104</v>
+      </c>
+      <c r="G46" s="3">
+        <v>4</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K46" s="3">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" ht="24" customHeight="1" spans="3:13">
+      <c r="C47" s="3">
+        <v>3105</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1085</v>
+      </c>
+      <c r="F47" s="6">
+        <v>1104</v>
+      </c>
+      <c r="G47" s="3">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K47" s="3">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
+        <v>1</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" ht="24" customHeight="1" spans="3:13">
+      <c r="C48" s="3">
+        <v>3106</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="6">
+        <v>1105</v>
+      </c>
+      <c r="F48" s="3">
         <v>1139</v>
       </c>
-      <c r="G37">
-        <v>5</v>
-      </c>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K37">
-        <v>4</v>
-      </c>
-      <c r="L37">
-        <v>4</v>
-      </c>
-      <c r="M37"/>
-    </row>
-    <row r="38" ht="24" customHeight="1" spans="3:13">
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="3:13">
-      <c r="C39">
-        <v>3101</v>
-      </c>
-      <c r="D39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39">
+      <c r="G48" s="3">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K48" s="3">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3">
+        <v>2</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" ht="24" customHeight="1" spans="3:13">
+      <c r="C49" s="3">
+        <v>3107</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="6">
+        <v>1105</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1139</v>
+      </c>
+      <c r="G49" s="3">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K49" s="3">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3">
+        <v>2</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" ht="24" customHeight="1" spans="3:13">
+      <c r="C50" s="3">
+        <v>3108</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="6">
+        <v>1105</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1139</v>
+      </c>
+      <c r="G50" s="3">
+        <v>4</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K50" s="3">
+        <v>4</v>
+      </c>
+      <c r="L50" s="3">
+        <v>2</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" ht="24" customHeight="1" spans="3:13">
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" ht="22" customHeight="1" spans="3:13">
+      <c r="C52" s="3">
+        <v>3201</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="3">
         <v>1070</v>
       </c>
-      <c r="F39">
-        <v>1084</v>
-      </c>
-      <c r="G39">
-        <v>4</v>
-      </c>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K39">
+      <c r="F52" s="3">
+        <v>1139</v>
+      </c>
+      <c r="G52" s="3">
         <v>3</v>
       </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39"/>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="3:13">
-      <c r="C40">
-        <v>3102</v>
-      </c>
-      <c r="D40" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40">
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K52" s="3">
+        <v>2</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" ht="22" customHeight="1" spans="3:13">
+      <c r="C53" s="3">
+        <v>3202</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" s="3">
         <v>1070</v>
       </c>
-      <c r="F40">
-        <v>1084</v>
-      </c>
-      <c r="G40">
-        <v>4</v>
-      </c>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K40">
+      <c r="F53" s="3">
+        <v>1139</v>
+      </c>
+      <c r="G53" s="3">
         <v>3</v>
       </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40"/>
-    </row>
-    <row r="41" ht="24" customHeight="1" spans="3:13">
-      <c r="C41">
-        <v>3103</v>
-      </c>
-      <c r="D41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41">
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K53" s="3">
+        <v>2</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" ht="22" customHeight="1" spans="3:13">
+      <c r="C54" s="3">
+        <v>3203</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" s="3">
         <v>1070</v>
       </c>
-      <c r="F41">
-        <v>1084</v>
-      </c>
-      <c r="G41">
-        <v>4</v>
-      </c>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K41">
+      <c r="F54" s="3">
+        <v>1139</v>
+      </c>
+      <c r="G54" s="3">
         <v>3</v>
       </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41"/>
-    </row>
-    <row r="42" ht="24" customHeight="1" spans="3:13">
-      <c r="C42">
-        <v>3104</v>
-      </c>
-      <c r="D42" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42">
-        <v>1085</v>
-      </c>
-      <c r="F42">
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K54" s="3">
+        <v>2</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" ht="24" customHeight="1" spans="3:13">
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" ht="22" customHeight="1" spans="3:13">
+      <c r="C56" s="3">
+        <v>3301</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1105</v>
+      </c>
+      <c r="F56" s="3">
         <v>1139</v>
       </c>
-      <c r="G42">
-        <v>4</v>
-      </c>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K42">
-        <v>3</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42"/>
-    </row>
-    <row r="43" ht="24" customHeight="1" spans="3:13">
-      <c r="C43">
-        <v>3105</v>
-      </c>
-      <c r="D43" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43">
-        <v>1085</v>
-      </c>
-      <c r="F43">
-        <v>1139</v>
-      </c>
-      <c r="G43">
-        <v>4</v>
-      </c>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K43">
-        <v>3</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43"/>
-    </row>
-    <row r="44" ht="24" customHeight="1" spans="3:13">
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
-    </row>
-    <row r="45" ht="22" customHeight="1" spans="3:13">
-      <c r="C45">
-        <v>3201</v>
-      </c>
-      <c r="D45" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45">
-        <v>1070</v>
-      </c>
-      <c r="F45">
-        <v>1139</v>
-      </c>
-      <c r="G45">
-        <v>3</v>
-      </c>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K45">
+      <c r="G56" s="3">
         <v>2</v>
       </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45"/>
-    </row>
-    <row r="46" ht="22" customHeight="1" spans="3:13">
-      <c r="C46">
-        <v>3202</v>
-      </c>
-      <c r="D46" t="s">
-        <v>53</v>
-      </c>
-      <c r="E46">
-        <v>1070</v>
-      </c>
-      <c r="F46">
-        <v>1139</v>
-      </c>
-      <c r="G46">
-        <v>3</v>
-      </c>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K46">
-        <v>2</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46"/>
-    </row>
-    <row r="47" ht="22" customHeight="1" spans="3:13">
-      <c r="C47">
-        <v>3203</v>
-      </c>
-      <c r="D47" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47">
-        <v>1070</v>
-      </c>
-      <c r="F47">
-        <v>1139</v>
-      </c>
-      <c r="G47">
-        <v>3</v>
-      </c>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K47">
-        <v>2</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47"/>
-    </row>
-    <row r="48" ht="24" customHeight="1" spans="3:13">
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
-    </row>
-    <row r="49" ht="22" customHeight="1" spans="3:13">
-      <c r="C49">
-        <v>3301</v>
-      </c>
-      <c r="D49" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49">
-        <v>1105</v>
-      </c>
-      <c r="F49">
-        <v>1139</v>
-      </c>
-      <c r="G49">
-        <v>2</v>
-      </c>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49"/>
-    </row>
-    <row r="50" ht="24" customHeight="1" spans="3:13">
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
-    </row>
-    <row r="51" ht="24" customHeight="1" spans="3:13">
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
-    </row>
-    <row r="52" ht="24" customHeight="1" spans="3:13">
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
-    </row>
-    <row r="53" ht="24" customHeight="1" spans="3:13">
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
-      <c r="M53"/>
-    </row>
-    <row r="54" ht="24" customHeight="1" spans="3:13">
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-    </row>
-    <row r="55" ht="24" customHeight="1" spans="3:13">
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
-    </row>
-    <row r="56" ht="24" customHeight="1" spans="3:13">
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K56" s="3">
+        <v>0</v>
+      </c>
+      <c r="L56" s="3">
+        <v>0</v>
+      </c>
+      <c r="M56" s="3"/>
     </row>
     <row r="57" ht="24" customHeight="1" spans="3:13">
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
-      <c r="M57"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
     </row>
     <row r="58" ht="24" customHeight="1" spans="3:13">
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
     </row>
     <row r="59" ht="24" customHeight="1" spans="3:13">
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
     </row>
     <row r="60" ht="24" customHeight="1" spans="3:13">
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
-      <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
     </row>
     <row r="61" ht="24" customHeight="1" spans="3:13">
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
     </row>
     <row r="62" ht="24" customHeight="1" spans="3:13">
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
     </row>
     <row r="63" ht="24" customHeight="1" spans="3:13">
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
     </row>
     <row r="64" ht="24" customHeight="1" spans="3:13">
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64"/>
-      <c r="J64"/>
-      <c r="K64"/>
-      <c r="L64"/>
-      <c r="M64"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
     </row>
     <row r="65" ht="24" customHeight="1" spans="3:13">
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
-      <c r="J65"/>
-      <c r="K65"/>
-      <c r="L65"/>
-      <c r="M65"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
     </row>
     <row r="66" ht="24" customHeight="1" spans="3:13">
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
-      <c r="J66"/>
-      <c r="K66"/>
-      <c r="L66"/>
-      <c r="M66"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
     </row>
     <row r="67" ht="24" customHeight="1" spans="3:13">
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
-      <c r="J67"/>
-      <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" ht="24" customHeight="1" spans="3:13">
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" ht="24" customHeight="1" spans="3:13">
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" ht="24" customHeight="1" spans="3:13">
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" ht="24" customHeight="1" spans="3:13">
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" ht="24" customHeight="1" spans="3:13">
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" ht="24" customHeight="1" spans="3:13">
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" ht="24" customHeight="1" spans="3:13">
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <conditionalFormatting sqref="F36">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F36 F37 E38 E39 E40 F46 F47 E48 E49 E50" errorStyle="warning">
+      <formula1>COUNTIF($C:$C,E36)&lt;2</formula1>
+    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:M5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
